--- a/treino.xlsx
+++ b/treino.xlsx
@@ -22,895 +22,895 @@
     <t>Target</t>
   </si>
   <si>
-    <t>comprei o livro e ele nao baixou gostaria de saber se vai baixar quero le lo muito grata pela atencao</t>
-  </si>
-  <si>
-    <t>muita enrolacao pouca informacao a autora fica contando sua vida pessoal e nao traz muitas informacoes relevantes ao leitor</t>
-  </si>
-  <si>
-    <t>nao gostei a capa diz mais do que o conteudo do livro</t>
-  </si>
-  <si>
-    <t>estava tentando ha dias continuar lendo sem que ficasse com um sono incontrolavel nao entendi muito no comeco quando aparecem cenas dela tendo relacoes sexuais com um homem parei de ler exclui e comprei outro livro nao sei qual o perfil de pessoas que gostaria de ler esse livro</t>
-  </si>
-  <si>
-    <t>incapaz de conviver com ideias diferentes na academia brasileira resolveu estudar filosofia sozinho essa sua incapacidade no entanto e algo que marca toda a sua trajetoria de vida se traduzindo em uma profunda intolerancia a qualquer pensamento divergente do seu nao sou petista nem comunista e nada disso mas tem muita coisa melhor para ler</t>
-  </si>
-  <si>
-    <t>o titulo certo deveria ser rascunho historicamente errado com lingua trivial o livro abusa do metodo de desconstrucao da historia tipo hitler era gay jesus foi casado com madalena descartado ha decadas por causa de seus erros o livro nao tem nada de politicamente incorreto sendo apenas uma colecao de conversas soltas e nao chega sequer a ser divertido de ler</t>
-  </si>
-  <si>
-    <t>o diario de anne frank tratase de uma farsa uma obra de ficcao quem pretende ler o livro tem que ter isso em mente depois que os falsificadores confessadamente admitiram que o famigerado diario nada mais e do que uma monumental impostura alterada deturpada e manipulada para transformarse num dos grandes bestsellers mundiais cabe aos nossos prefeitos vereadores deputados estaduais federais e todos os responsaveis pelas areas da educacao partirem para a acao fazendo a unica coisa cabivel diante de tanta falsidade e infamia retirar o nome desta impostura da infinidade de pracas ruas largos teatros colegios e outras instituicoes espalhadas por todo o pais e pelo mundo ha mais de uma decada o catedratico frances professor da universidade de lyon robert faurisson dissecou e desmascarou cientifica e impiedosamente a impostura do chamado diario de anne frank usando a frieza da tecnica investigativa inerente a todo autentico pesquisador historico faurisson provou atraves de infindaveis evidencias a manipulacao na elaboracao dos famosos diarios alem de desnudar o grande e fabulosamente rendoso negocio em que se transformou esta falsificacao historica um exemplo so em direitos autorais o pai da infeliz menina que morreu de tifo enquanto seu saudavel e milionario pai foi hospitalizado em auschwitz e sobreviveu recebe somas em todas as escolas a estoria desta publicacao esta repleta de brigas e demandas entre o pai o tio os editores o compilador o escritor fantasma etc todos de olho no filao interminavel que representa a posse de seus direitos autorais</t>
-  </si>
-  <si>
-    <t>esbarrei e comprei livro errado nao queria comprar esse livro sem querer esbarrei e acabou comprando pois nao ha confirmacao da compra tudo em apenas um clique nem cheguei a abrir o link para ler o livro preferiria desconto livros de economia didaticos pois uso com frequencia devido a profissao de professor que estou comecando mas a inciativa foi boa da amazon</t>
-  </si>
-  <si>
-    <t>textos curtos com poucos atrativos embora seja um classico por conta da criatividade e mensagens subliminares do autor nao agucou a curiosodade nem a vontade de ler</t>
-  </si>
-  <si>
-    <t>apesar de ler varias avaliacoes positivas aqui eu nao gostei do livro infelizmente apos pesquisar sobre a vida do autoro que devia ter feito antes vi que ele nao passa de um charlatao me chamou atencao pelo nome do livro mas nao achei o conteudo bom e sinceramente eu nao gosto de ler autores que passam uma imagem mas vivem outra coisa me arrependi da compra e irei efetuar a troca quanto a amazon foram otimos indico o milagre da manha diario pra quem busca um novo estilo de vida</t>
-  </si>
-  <si>
-    <t>estava com saudades de todos os personagens mas contado assim como teatro perde toda a magica a historia e incrivelmente fraca e previsivel os personagens nao parecem com eles mesmos o desfecho e sofrivel aibda apresenta um que de dramalhao mexicano</t>
-  </si>
-  <si>
-    <t>comprei no lancamento o livro e mais completo essa segunda edicao tem paginas a menos em comparacao ao outro faltou conteudo</t>
-  </si>
-  <si>
-    <t>comecei a ler esse livro porque amei o anterior e fiquei curiosa sobre a continuacaomas me decepcionei completamente totalmente desnecessario e pra usar palavras fofasdiria que e chato nao gostei nem um pouco</t>
-  </si>
-  <si>
-    <t>os poemas epicos de homero representam um grande desafio para qualquer tradutor este contempla geralmente tres possibilidades manter ou tentar manter a metrica do poema nem que para isso seja necessario sacrificar a sua compreensao manter a forma geral poema basicamente a sua estrutura e versos e estrofes traduzindo no entanto com vistas a tornar a linguagem a mais direta e de facil compreensao possivel pelo leitor contemporaneo por ultimo abandonar completemente a forma poetica e transformar a iliada e a odisseia em narrativas em prosa de todas a primeira opcao e a pior e aquela que produz os resultados mais artificiais e menos satisfatorios para o leitor comum foi essa a alternativa escolhida por carlos alberto nunes o que faz da leitura dessa edicao uma tarefa chata e cansativa justamente o oposto do que se espera dessas obras</t>
-  </si>
-  <si>
-    <t>tudo que poderia falar de uma boa analise da guerra do paraguai e do surgimento do samba foi suplantado por um discurso superficial e rasteiro da metade do livro em diante parece um manifesto anticomunista sua defesa incondicional ao golpe de 1964 foi algo desmedido e que a meu ver perdeu toda a relevancia de uma pesquisa que virou pura retorica</t>
-  </si>
-  <si>
-    <t>a leitura e muito prejudicada no kindle o texto nao se alinha a pagina ficando apenas na metade da tela nao da para ler pessimo</t>
-  </si>
-  <si>
-    <t>no ato da minha compra na descricao do produto nao constava que o mesmo era um livro de bolso muito pelo contrario as dimensoes do produto eram outras se eu estivesse no endereco quando o produto foi entregue teria devolvido o mesmo sem pestanejar infelizmente estava de ferias e acabei perdendo o prazo de devolucao outra observacao que tenho a fazer e em relacao ao zelo pelos produtos embalados os funcionarios da amazon pesaram a mao nas minhas ultimas entregas pois praticamente todos os livros contem leves amassados em suas bordas fica aqui a minha indignacao com a amazon</t>
-  </si>
-  <si>
-    <t>umberto eco e esta sua obra ja foram muito bem descritos pelo conjunto de resenhas aqui publicadas minha fala se restringira a edicao de bolso iniciei a releitura motivada pela revisao do autor e o acrescimo do texto apostilas tentei mas nao consegui ir adiantes apesar do conteudo folha branca margens estreitas espacos mais do que simples letras miudas nao ha espaco para escrevermos as traducoes dos trechos em latim para interpretacao das palavras mais rebuscadas e registroa das impressoes de leitura este texto requer interacao do leitore a versao de bolso impede por seu apertamento sugiro a editora re lancar em capa dura papel creme com fontes e tudo o mais que venha a deixar a leitura confortavel obs na imagem inicial com o mapa da abadia suspeito que faltam dados ha divergencia entre o desenho e a legenda</t>
-  </si>
-  <si>
-    <t>um pouco desapontada acho q estava com mta expectativa</t>
-  </si>
-  <si>
-    <t>nao recebi o livro nao sei o motivo foi feito tudo como orientado estou com muito receio de realizar nova compra</t>
-  </si>
-  <si>
-    <t>tive contato com a obra de olavo de carvalho quando eu tinha la meus 15 anos por algumas semanas achei interessante pois tinha o proposito de desvelar verdades e conspiracoes passadas as semanas com meus olhos afiados para cacar comunistas analisei seus indicios busquei referencias paralelas e me dei conta de que ele e um lunatico desde entao toda vez que vejo alguem dizer que gosta de olavo de carvalho ja encaro a pessoa como no minimo uma analfabeta funcional recentemente um youtuber filosofo formado com as devidas tecnicas de investigacao filosofica fez um video de leitura e analise de logica textual desse livro conclusao nao ha um paragrafo desse livro que nao se utiliza de falacias no video tambem sao elencados de maneira tecnica os tipos de falacia utilizados linkhttpsyoutubeejq9kvvuw0y</t>
-  </si>
-  <si>
-    <t>estava louco para ler o livro e fiquei muito desapontado com a linguagem do autor sei que muitos fatos da historia mundial sao enfeitados mas este autor quase que denigre a imagem dos representantes de nossa historia nao percebi nenhum embasamento muito teorico e ele repete dialogos preconceituosos da sociedade nao sei por qual motivo parece fazer tanto sucesso</t>
-  </si>
-  <si>
-    <t>simplorio e so lugar comum para um livro parece texto de blog ele faz apenas propaganda de um curso chamado fast read</t>
-  </si>
-  <si>
-    <t>olavo e um fanatico religioso que encontrou publico farto para ler sua pseudoobra uma destilacao de senso comum com mesclas de odio preconceito e discurso autoritario triste</t>
-  </si>
-  <si>
-    <t>muito chato cansativo perdi meu tempo</t>
-  </si>
-  <si>
-    <t>um livro para ler e jogar fora e sem comentar com ninguem altamente nao recomendavel o conteudo do livro e lixo puro</t>
-  </si>
-  <si>
-    <t>nada de novo neste livrinho peguei pois veio gratis com um eletronico o basico do basico acerca da 2a guerra mundial</t>
-  </si>
-  <si>
-    <t>nao gostei porque a capa veio com um rasgo o que para edicao de colecionador e pessimo espero que das proximas vezes que eu comprar nao venham novamente com defeitos ou algo do tipo</t>
-  </si>
-  <si>
-    <t>e incrivel como os sebos nao tem nocao vendem muito mais caro que a loja virtual no qual estao locados sebo deveria significar livro novo lacrado porque os novos estao custando mais baratos que os usados vendidos nos sebos vai ver fungo acaro e poeira ta valendo mais que os autorais</t>
-  </si>
-  <si>
-    <t>tinha tuuuudo para ser um livro incrivel pensem na situacao o bofe te chama pra sair e voces vao para um lago chegando la descobrem uma casa abaixo dele e essa casa e toda mobilizada e nada nela flutua ela e fixada no fundo desse lago e uma baita aventura certo o casal sorry ja esqueci o nome ficam vidrados nessa casa e passam dias e dias no rio explorando o lugar vendo as roupas os moveis ate uma piscina sim tem uma piscina dentro do rio quando comeca o suspense confesso que da ate uma arrepiada onde o sol nao bate mas nao passa muito disso apesar de ser um livro curto chega um momento que nao rola nada de incrivel mais e quando parece que vai pra frente fica um lengalenga chato novamente apesar dos pesares ficamos curiosos para o fim da historia eu queria saber qual era daquela casa se eles iam morar la se eles iam morrer naquela casa alguma bagaca ia ter que acontecer maaaaas no final eu fiquei com uma puta cara de paisagem e pensei que final merda enfim tinha tudo pra ser bom mas foi tudo uma merda nota 155</t>
+    <t>comprei livro baixou gostaria saber vai baixar quero le grata atencao</t>
+  </si>
+  <si>
+    <t>enrolacao informacao autora fica contando vida pessoal traz informacoes relevantes leitor</t>
+  </si>
+  <si>
+    <t>gostei capa mais conteudo livro</t>
+  </si>
+  <si>
+    <t>tentando dias continuar lendo ficasse sono incontrolavel entendi comeco aparecem cenas relacoes sexuais homem parei ler exclui comprei livro sei perfil pessoas gostaria ler livro</t>
+  </si>
+  <si>
+    <t>incapaz conviver ideias diferentes academia brasileira resolveu estudar filosofia sozinho incapacidade entanto algo marca trajetoria vida traduzindo profunda intolerancia qualquer pensamento divergente sou petista comunista nada melhor ler</t>
+  </si>
+  <si>
+    <t>titulo certo ser rascunho historicamente errado lingua trivial livro abusa metodo desconstrucao historia tipo hitler gay jesus casado madalena descartado decadas causa erros livro nada politicamente incorreto apenas colecao conversas soltas chega sequer ser divertido ler</t>
+  </si>
+  <si>
+    <t>diario anne frank tratase farsa obra ficcao pretende ler livro mente falsificadores confessadamente admitiram famigerado diario nada mais monumental impostura alterada deturpada manipulada transformarse bestsellers mundiais cabe prefeitos vereadores deputados estaduais federais responsaveis areas educacao partirem acao unica cabivel diante tanta falsidade infamia retirar nome impostura infinidade pracas ruas largos teatros colegios instituicoes espalhadas pais mundo mais decada catedratico frances professor universidade lyon robert faurisson dissecou desmascarou cientifica impiedosamente impostura chamado diario anne frank usando frieza tecnica investigativa inerente autentico pesquisador historico faurisson provou infindaveis evidencias manipulacao elaboracao famosos diarios alem desnudar fabulosamente rendoso negocio transformou falsificacao historica exemplo direitos autorais pai infeliz menina morreu tifo saudavel milionario pai hospitalizado auschwitz sobreviveu recebe somas escolas estoria publicacao repleta brigas demandas pai tio editores compilador escritor fantasma etc olho filao interminavel representa posse direitos autorais</t>
+  </si>
+  <si>
+    <t>esbarrei comprei livro errado queria comprar livro querer esbarrei acabou comprando confirmacao compra apenas clique cheguei abrir link ler livro preferiria desconto livros economia didaticos uso frequencia devido profissao professor comecando inciativa boa amazon</t>
+  </si>
+  <si>
+    <t>textos curtos atrativos embora classico conta criatividade mensagens subliminares autor agucou curiosodade vontade ler</t>
+  </si>
+  <si>
+    <t>apesar ler varias avaliacoes positivas aqui gostei livro infelizmente pesquisar vida autoro vi passa charlatao chamou atencao nome livro achei conteudo bom sinceramente gosto ler autores passam imagem vivem arrependi compra irei efetuar troca amazon otimos indico milagre manha diario pra busca novo estilo vida</t>
+  </si>
+  <si>
+    <t>saudades personagens contado assim teatro perde magica historia incrivelmente fraca previsivel personagens parecem desfecho sofrivel aibda apresenta dramalhao mexicano</t>
+  </si>
+  <si>
+    <t>comprei lancamento livro mais completo segunda edicao paginas menos comparacao faltou conteudo</t>
+  </si>
+  <si>
+    <t>comecei ler livro amei anterior fiquei curiosa continuacaomas decepcionei completamente totalmente desnecessario pra usar palavras fofasdiria chato gostei</t>
+  </si>
+  <si>
+    <t>poemas epicos homero representam desafio qualquer tradutor contempla geralmente tres possibilidades manter tentar manter metrica poema necessario sacrificar compreensao manter forma geral poema basicamente estrutura versos estrofes traduzindo entanto vistas tornar linguagem mais direta facil compreensao possivel leitor contemporaneo abandonar completemente forma poetica transformar iliada odisseia narrativas prosa primeira opcao pior produz resultados mais artificiais menos satisfatorios leitor comum alternativa escolhida carlos alberto nunes faz leitura edicao tarefa chata cansativa justamente oposto espera obras</t>
+  </si>
+  <si>
+    <t>falar boa analise guerra paraguai surgimento samba suplantado discurso superficial rasteiro metade livro diante parece manifesto anticomunista defesa incondicional golpe 1964 algo desmedido perdeu relevancia pesquisa virou pura retorica</t>
+  </si>
+  <si>
+    <t>leitura prejudicada kindle texto alinha pagina ficando apenas metade tela ler pessimo</t>
+  </si>
+  <si>
+    <t>ato compra descricao produto constava livro bolso contrario dimensoes produto eram estivesse endereco produto entregue teria devolvido pestanejar infelizmente ferias acabei perdendo prazo devolucao observacao tenho relacao zelo produtos embalados funcionarios amazon pesaram mao entregas praticamente livros contem leves amassados bordas fica aqui indignacao amazon</t>
+  </si>
+  <si>
+    <t>umberto eco obra bem descritos conjunto resenhas aqui publicadas fala restringira edicao bolso iniciei releitura motivada revisao autor acrescimo texto apostilas tentei consegui ir adiantes apesar conteudo folha branca margens estreitas espacos mais simples letras miudas espaco escrevermos traducoes trechos latim interpretacao palavras mais rebuscadas registroa impressoes leitura texto requer interacao leitore versao bolso impede apertamento sugiro editora re lancar capa dura papel creme fontes mais venha deixar leitura confortavel obs imagem inicial mapa abadia suspeito faltam dados divergencia desenho legenda</t>
+  </si>
+  <si>
+    <t>desapontada acho q mta expectativa</t>
+  </si>
+  <si>
+    <t>recebi livro sei motivo orientado receio realizar nova compra</t>
+  </si>
+  <si>
+    <t>tive contato obra olavo carvalho 15 anos semanas achei interessante proposito desvelar verdades conspiracoes passadas semanas olhos afiados cacar comunistas analisei indicios busquei referencias paralelas dei conta lunatico desde entao vejo dizer gosta olavo carvalho encaro pessoa minimo analfabeta funcional recentemente youtuber filosofo formado devidas tecnicas investigacao filosofica fez video leitura analise logica textual livro conclusao paragrafo livro utiliza falacias video elencados maneira tecnica tipos falacia utilizados linkhttpsyoutubeejq9kvvuw0y</t>
+  </si>
+  <si>
+    <t>louco ler livro fiquei desapontado linguagem autor sei fatos historia mundial enfeitados autor quase denigre imagem representantes historia percebi embasamento teorico repete dialogos preconceituosos sociedade sei motivo parece tanto sucesso</t>
+  </si>
+  <si>
+    <t>simplorio lugar comum livro parece texto blog faz apenas propaganda curso chamado fast read</t>
+  </si>
+  <si>
+    <t>olavo fanatico religioso encontrou publico farto ler pseudoobra destilacao senso comum mesclas odio preconceito discurso autoritario triste</t>
+  </si>
+  <si>
+    <t>chato cansativo perdi tempo</t>
+  </si>
+  <si>
+    <t>livro ler jogar fora comentar altamente recomendavel conteudo livro lixo puro</t>
+  </si>
+  <si>
+    <t>nada novo neste livrinho peguei veio gratis eletronico basico basico acerca 2a guerra mundial</t>
+  </si>
+  <si>
+    <t>gostei capa veio rasgo edicao colecionador pessimo espero proximas vezes comprar venham novamente defeitos algo tipo</t>
+  </si>
+  <si>
+    <t>incrivel sebos nocao vendem mais caro loja virtual locados sebo significar livro novo lacrado novos custando mais baratos usados vendidos sebos vai fungo acaro poeira ta valendo mais autorais</t>
+  </si>
+  <si>
+    <t>tuuuudo ser livro incrivel pensem situacao bofe chama pra sair voces vao lago chegando descobrem casa abaixo casa mobilizada nada nela flutua fixada fundo lago baita aventura certo casal sorry esqueci nome ficam vidrados casa passam dias dias rio explorando lugar roupas moveis piscina sim piscina dentro rio comeca suspense confesso arrepiada onde sol bate passa apesar ser livro curto chega momento rola nada incrivel mais parece vai pra frente fica lengalenga chato novamente apesar pesares ficamos curiosos fim historia queria saber daquela casa iam morar iam morrer naquela casa bagaca ia acontecer maaaaas final fiquei puta cara paisagem pensei final merda enfim pra ser bom merda nota 155</t>
   </si>
   <si>
     <t>fraco</t>
   </si>
   <si>
-    <t>o que esse pessoal tem na cabeca os videntes veem ameaca a democracia em qualquer coisa que nao seja exatamente como os mimados com nivel superior ouviram dos seus professores e triste o abismo educacional vivido no brasil e imaginar que isso esta ocorrendo nos eua tambem</t>
-  </si>
-  <si>
-    <t>nao consigo baixar livro para lernao consigo adicionar o livro a minha biblioteca ja tentei de varias maneiras e nao consegui fazer</t>
-  </si>
-  <si>
-    <t>obra prima da idiotice nacional</t>
-  </si>
-  <si>
-    <t>a edicao e maravilhosa o preco bom contudo o livro veio rasgado no canto superior direito da lombada e a primeira vez que isso ocorrea amazon costuma ser excelentee preciso dizer</t>
-  </si>
-  <si>
-    <t>no comeco da leitura mais precisamente nos tres primeiros capitulos achei o livro interessante e por isso resolvi continuar os capitulos seguintes nao me agradaram muito nao por causa do assunto mas pela forma como foi escrito o milagre da manha foi colocado como um produto o livro me pareceu uma descricao desse produto com varios argumentos de venda enfim a proposta e boa mas o livro e fraco minha opiniao</t>
-  </si>
-  <si>
-    <t>simples assim a formatacao esta tao ruim que perdi a vontade de ler o livro o texto fica todo no lado esquerdo ocupando apenas metade da pagina cada pagina acaba tendo poucas frases</t>
-  </si>
-  <si>
-    <t>pessimo nao acredito que ela escreveu esse livro nao da continuidade ao ultimo livro chato nao fala coisa com coisa decepcao e pouco estou irritada e melhor fazer outro livro final</t>
-  </si>
-  <si>
-    <t>fiquei satisfeita com a velocidade da entrega e o valor do frete porem eu comprei esse produto como presente de aniversario paguei pelo cartao de presente e embrulho e ele vei embalado de maneira normal a caixa do box chegou danificada e rasgada nas laterais assim como o primeiro volume estava com uma orelha gigante na contracapa como se houvesse sido dobrada de maneira proposital havia cola na lombada do volume 3 e o volume 5 estava com as laterais das capas amacadas ou seja os produtos chegaram seriamente danificados estou muito desapontada com isso com a falta de respeito com o cliente se voce paga por um produto e servico deseja que ele chega em excelentes condicoes a sua mao eu iria fazer a devolucao mas a pessoa a quem eu presenteei muito tranquilamente aceito o produto danificado</t>
-  </si>
-  <si>
-    <t>varios personagens sem desfecho final sem pe de cabeca e temos uma eva chorona nao precisava desse livro muita expectativa para pouco</t>
-  </si>
-  <si>
-    <t>nao gostei apenas alguns conceitos sao validos o livro de produtividade do david allen muito melhor pois apresenta como fazer em etapas com exemplos</t>
-  </si>
-  <si>
-    <t>li ate a metade do livro ainda na empolgacao achando que aquilo ia melhorar na outra metade apenas me arrastei pra terminar de ler a estoria nao te prende as senas de sexo sao muiiiito monotonas o livro e chato entendiante facil de ler sim mas onde e bem escrito mocinho tem problemas rico de 27 anos dono de um imperio mocinha patricinha que tem problemas chata que tudo que acontece saiu correndo do mocinho amor completamente exagerado com uma semana o cara manda fazer uma replica do quarto da eva na casa dele oi chato chato e chato</t>
-  </si>
-  <si>
-    <t>comprei essa edicao acreditando tratarse de uma otima aquisicao e me decepcionei muito uma capa maravilhosa porem sem conteudo meu livro preferido e uma traducao bem meiaboca recheada de erros de concordancia e infiel ao original</t>
-  </si>
-  <si>
-    <t>leonardo davinci foi um artista revolucionario nenhuma duvida quanto a isso mas o autor consegue transformar sua historia numa chatice repetitiva que nao empolga alem dos dois primeiros capitulos ao optar por se debrucar nas paginas dos cadernos de leonardo issacson escolhe informacoes muitas vezes absolutamente irrelevantes que parecem estar ali nao para dar uma ideia de quem o artista era mas apenas para encher paginas e repetir informacoes que em muitos casos ja foram dadas em momentos anteriores do livro alem disso as analises minuciosas de muitas das obras de leonardo acabam ficando desinteressantes talvez porque eu nao seja um grande conhecedor de arte e tambem muitas vezes chatas fazendo com que a leitura se arraste desconfio que o proprio leonardo assim como eu teria largado o livro pela metade e procurado algo mais interessante para ler</t>
-  </si>
-  <si>
-    <t>o livro e otimo oque estou indignado e que paguei 4941 no kindler e o livro normal na saraivaamericana e submarino custa 3990 assim e desanimador comprar grato</t>
-  </si>
-  <si>
-    <t>eu so recebi o primeiro volume os demais volumes nao foram postados sera que as obras completas se resumem a um so volume</t>
-  </si>
-  <si>
-    <t>fiz de tudo para configurar o kindle e conclui que o problema e do ibook nao importa o tamanho da letra a separacao das letras no final das linhas fica completamente errada tipo independente isso nao acontece com os outros livros que comprei e muito ruim ler assim</t>
-  </si>
-  <si>
-    <t>realmente triste um sucesso desses ser vendido numa versao digital que teve custo minimo de producao e tem custo 0 de venda num preco 2x maior que o produto fisico que teve custos de producao e distribuicao infinitamente maiores do que o digital simplesmente lamentavel amazon perdeu todo o respeito que eu tinha pela empresa</t>
-  </si>
-  <si>
-    <t>o livro veio mal lavrado e com as pontas dos livros amassados</t>
-  </si>
-  <si>
-    <t>parece que o autor nao leu o proprio livro</t>
-  </si>
-  <si>
-    <t>um livro leve de facil leitura e linguagem simples ou simploria cheio de obviedades e senso comum e que nao acrescenta muito ou quase nada ou seja tem tudo para ser um bestseller no brasil</t>
-  </si>
-  <si>
-    <t>sou muito influenciada digitalmente entao cedi ao hype da autora e comprei o livro e bonitinho as ilustracoes sao legais mas nao entendi os animos exacerbados sobre a obra poesia de instagram e nao falo isso com entonacao positiva e rapida leviana e descartavel alguns poucos poemas se salvam e sao um sopro de boa escrita no meio de diversas paginas desperdicadas por poesias curtas de tres linhas e que nao dizem a que vieram</t>
-  </si>
-  <si>
-    <t>livro superficial escrito para impressionar os leitores ignaros que apreciam uma leitura sensacionalista mistura fatos reais e inverdades nao recomendo</t>
-  </si>
-  <si>
-    <t>desisti em pouco mais de 30 do livro li os livros sobre os principes de castelanni e amei todos esse livro tem muitas cenas picantes no inicio contudo os personagens eram incoerentes nao tive a sensacao de que eram pessoas e sentimentos reais e isso que difere um filme erotico de um livro e que tanto encanta as mulheres</t>
-  </si>
-  <si>
-    <t>sapiens uma breve historia da humanidade realmente realmente e um livro muito interessante ja homo deus decepciona pois pouco ou nada fala de como chegaremos no amanha</t>
-  </si>
-  <si>
-    <t>tenho plena consciencia que eu sou a unica pessoa do mundo que nao gosta desse livro</t>
-  </si>
-  <si>
-    <t>um babaca achando que sabe de alguma coisa relevante a humanidade</t>
-  </si>
-  <si>
-    <t>essa editora copia e cola os livros de outra editora chamada centaur que por sua vez lanca os livros do dostoievski em traducoes arcaicas do seculo xix geralmente traducoes do frances infelizmente no brasil a unica editora que traduz os livros do dostoievski direto do russo a editora 34 nao lanca esses livros em formato kindle</t>
-  </si>
-  <si>
-    <t>as dicas sao boas mas nada de novo na verdade sao bem obvias acredito que a maior parte das pessoas ja as conhecem no meu ponto de vista e um livro fraco comprei mesmo pelo titulo</t>
-  </si>
-  <si>
-    <t>o autor se descreve como o deus do coaching fazendo referencias as suas horas de trabalho e ao seu programa o tempo todo faz propaganda do seu programa de coaching mais do que deveria nao e um livro que o prenda a sua atencao muito simples nao de uma boa maneira</t>
-  </si>
-  <si>
-    <t>alguns conceitos abordados no livro podem ser com sorte aplicados nas relacoes mas de modo geral as coisas nao fluem como o livro cita principalmente no mundo corporativo parece que o leitor acha que devemos ser a madre teresa de calcuta enquanto que a realidade e completamente diferente o leitor chega ao ponto de dizer que devemos elogiar os erros alheios parece mais papo de comunistinha socialista do que de alguem que queira realmente vencer na vida os exemplos abordados no livro de historias sao bem superficiais e da pra ver que na real nao foi nada daquilo sendo que muitos ali vc ve homens de posicao e conviccoes mudarem de postura com uns elogios futeis enfim o livro e bem agua com acucar e nao condiz com toda essa popularidade da midia se ler os livros do pupilo dele o napolleon hill sao muito melhores aquele mormente que o discipulo superou muito seu mestre</t>
-  </si>
-  <si>
-    <t>eu fiquei muito decepcionada com a autora esperava mais do livro ela acabou com a historia de gideon e eva nesse ultimo volume esperava um desfecho melhor sabe aquele final feliz eles deixam seus medos e traumas pra tras vao pra lua de mel esperava os filhos nem isso teve muito triste perdi meu tempo lendo todo seu</t>
-  </si>
-  <si>
-    <t>a estoria e bem elaborada mas deixa o protagonista muito machistae oque acontece com os escritores que nunca pensam em protecao achei a parte hot muito repetitiva</t>
-  </si>
-  <si>
-    <t>uma leitura muito arrastada muitas vezes tive a sensacao de ja ter lido a mesma coisa no livro outras vezes recomendo so pra quem gosta da premissa mesmo de fato</t>
-  </si>
-  <si>
-    <t>produto horrivel veio com varias paginas em branco</t>
-  </si>
-  <si>
-    <t>mais do mesmo</t>
-  </si>
-  <si>
-    <t>com a popularizacao dos ebook houve uma falsa ideia de baratear o preco das obras digitais visto que a grande maioria dos livros a venda aqui encontramse mais caros do que sua versao em papel ledo engano em pensar que eu substituiria meus livros tradicionais por ebook continuarei comprando meus livros e usufruindo os ebook de ate 12 reais que julgo um preco justo</t>
-  </si>
-  <si>
-    <t>que livro chato gente quase nao consegui terminar de ler o livro fui realmente insistente a historia nao casa e cansa parecem outros personagens nao sao as mesmas pessoas do inicio do livro ai vc pode ate defender e falar mas eles amadureceram puxa vida que saco amadureceram e ficaram extremamente sacal a historia se perdeu deveria ter terminado no terceiro livro e ponto fazer livros so para vender e um desrespeito com os leitores e no caso dessa serie foi exatamente isso eu li so para terminar porem pulei mais da metade das paginas a trama deste livro nao e envolvente nao acrescenta nada e pior ficaram muitas pontas soltas nao recomendo esse ultimo livro</t>
-  </si>
-  <si>
-    <t>compreendo o atraso enorme de quase duas semanas por causa da greve dos caminhoneiros mas isso nao justifica depois de tudo isso o livro chegar com a capa amassada e duas folhas amassadas sinceramente esperava mais</t>
-  </si>
-  <si>
-    <t>livro apenas comenta sobre o que e leitura rapida realmente decepcionante gostaria de obter meu dinheiro de volta nao comprem</t>
-  </si>
-  <si>
-    <t>em poucas palavras nao gostei nada como costuma acontecer com certos best sellers o autor parte de uma premissa e nao esta disposto a avaliar outras opinioes tira conclusoes sem qualquer embasamento nem todas verdade seja dita nao entendi porque tanta aclamacao feita a esta obra</t>
-  </si>
-  <si>
-    <t>apresentase como um livro de autoajuda mas quando voce comecar a ler vai ver que se trata de um livro sobre a historia do habito assemelhase mais a um livro didatico de faculdade penso que se o objetivo era trazer a tecnica para incorporar determinado habito a nossa vida o livro poderia ser reduzido em ate 75 a nao ser que voce seja um entusiasta que queria saber os primordios do assunto nao recomendo</t>
-  </si>
-  <si>
-    <t>eu entendi a proposta do livro creio que pode ser tocante para algumas pessoas mas eu tive certo receio em me abrir para esse toque talvez nao seja o momento talvez a beleza do livro esteja em contemplar a partir de uma certa otica e eu nao achei esse angulo certo ainda</t>
-  </si>
-  <si>
-    <t>a obra e excelente o que me chateou foi o box ter vindo amassado e o livro paraiso tambem as gravuras junto com os textos tambem nao me agradou ficando elas muito pequenas o livreto a parte nao e la grandes coisas mas ajuda a melhorar o box um box com esse tipo de literatura poderiam ter um pouco mais de cuidado</t>
-  </si>
-  <si>
-    <t>o box chegou com amassados riscos e com uma especie de cola grudada na parte externa dos livros unica vantagem que vi foi o tempo de entrega de 2 dias porem esperava muito mais de uma empresa como a amazon</t>
-  </si>
-  <si>
-    <t>os livros e suas capas estao otimos bonitos e sem problemas agora o box que guarda os livros infelizmente veio rasgado</t>
-  </si>
-  <si>
-    <t>texto nao academico sem nenhum embasamento historico escrito por um nao historiador seu preco esta de acordo com a baixa qualidade</t>
-  </si>
-  <si>
-    <t>todo enredo acaba no primeiro livro o pouco de suspense restante com as poucas perguntas por responder poderiam ter sido concluidos em um livro so o que faz os outros 2 livros insurgente e convergente desnecessarios e enchecao de linguica respondendo perguntas que nem eram tao importantes assim alem de tentar fazer um final surpresa e falhar nisso deixando ele so deprimente muito triste porque o primeiro livro tem um otimo passo enredo e etc</t>
-  </si>
-  <si>
-    <t>pessoal voces poderiam dar uma atencao maior para um produto com este valor sou um grande fa da serie e vejo que este e um problema muito ruim para o comprador temos 2 livros que estao com a formatacao danificada sem justificar a camara secreta e enigma do principe poderiam lancar um atualizacao para o livros acredito que iria agradar muito aos leitores aguardo respostas</t>
-  </si>
-  <si>
-    <t>nao me aterei a historia que ja e um sucesso consagrado a edicao de bolso deseja muito a desejar as paginas sao tao brancas que e impossivel ler em um espaco aberto e como se nao bastasse as folhas sao tao finas que e possivel enxergar o que esta escrito na pagina seguinte realmente torna esse leitura que deveria ser tao proveitosa em algo desconfortavel ao extremo decepcionada com essa edicao vale investir em outra</t>
-  </si>
-  <si>
-    <t>livro com uma historia rasa e previsivel e embora seja um livro com uma leitura que flui bem nao e bem escrito</t>
-  </si>
-  <si>
-    <t>nao recomendo a ninguem sem conteudo futil e pobre de informacoes mais vale ler a revista caras que voce estara perdendo menos tempo</t>
-  </si>
-  <si>
-    <t>nao gostei muito do livro ele e todo escrito em formas de emails e mensagens me deu a impressao de que ninguem nunca se encontra e quando marcam de se encontrar nao tem aquela emocao porque o leitor so sabe por mensagem como a festa foi legal foi bom te ver nao tem aquela emocao no final de cada capitulo que te faz querer ler mais e mais essa e minha opiniao mas uma amiga minha gostou e achou diferente</t>
-  </si>
-  <si>
-    <t>os textos sao soltos trechos bem reflexivos sobre a natureza feminina sentimentos e relacionamentos mas esperava mais poesia e profundidade</t>
-  </si>
-  <si>
-    <t>o autor vende mais sua imagem que as ideias que pretendia mostrar no livro superficial e com tecnicas nada inovadoras ou desconhecidas usualmente</t>
-  </si>
-  <si>
-    <t>esse preco nao existe nao tem o menor cabimento e melhor assistir novela mesmo qual a desculpa da editora pra vender o livro por esse preco</t>
-  </si>
-  <si>
-    <t>o livro e prolixo redundante doentio sou suspeito para falar de terror psicologico pois gosto muito do tema mas o que king faz aqui e no minimo um desgosto o livro e horrivel quanto mais proximo ao final mais esquisito fica cenas de estupro abuso sexual e mais algumas coisas estao presentes odiei o livro nao recomendaria para ninguem mas nao deixe de ler pode ser que voce goste</t>
-  </si>
-  <si>
-    <t>coaching virou um grande modismo assim como criticalo uma infeliz realidade preciso assumir como um profundo amante do autodesenvolvimento consegui obter diversos insights uteis durante a leitura ou seja de qualquer forma da pra extrair boas ideais mas como de praxe no mundo do coaching as paginas comecam a se encher de mensagens e afirmacoes sem embasamento nenhum uma verdadeira compilacao de achismo e falsas verdades baseadas em principios infudados tirados da cabeca do autor e de fontes semelhantes ao proprio sem comprovacoes impiricas validas ou qualquer alicerce cientifico que os sustente muito pelo contrario o livro conta com frequentes exemplos e citacoes que nao passam descancaradamente de pseudociencia com um toque de sensacionalismo e ate mesmo charlatanismo alem de varias referencias sem fontes sendo varias parcialmente falsas isto e ou o escritor e muito inocente ou manipulador com o intuito de corrobar suas ideais e ambos os casos nao fazem jus ao seu titulo de phd e ja estava esquecendo dos inumeros depoimentos que sao no minimo levemento modificados para parecerem mais grandiosos em resumo se voce procura por um livro do nivel de o poder do habito nao nao mesmo recomendo a leitura mas caso voce so queira obter alguns insights sobre o seu poder sobre sua vida e algumas dicas praticas vale a leitura ou nao desde que esteje muito atento a tantas ressalvas ps sem querer encharquei o livro com cafe pelo menos nao foi um livro bom rsrs</t>
-  </si>
-  <si>
-    <t>esse livro do cortella e muito previsivel e superficial chegando quase a ser uma copia de outras publicacoes classicas nessa area da analise comportamental os habitos que cortella cita ao longo do livro sao comportamentos que ja sao citados pela nossa avo outro problema do livro e o fato de o autor fazer muitas conexoes com pensamentos e filosofias de cunho socialista e esquerdista acabando por ser extremamente parcial</t>
-  </si>
-  <si>
-    <t>quando li a sinopse do livro esperava tratarse de um romance de verdade mesmo que com um final infeliz na verdade tratase de uma historia de amor de uma so pessoa no final das contas a protagonista era uma mulher envolvida com um homem egocentrico que amava acima de tudo a ele mesmo e nao suportava a ideia de nao ser mais o que foi no passado enquanto a protagonista fez dele o centro da vida dela e se dispos a se sacrificar por este homem ele se recusou a fazer o mesmo quando este homem a ajuda e na tentativa de fazer dela um espelho dele mesmo o final poderia ser mais elaborado ficou com aquela sensacao de que o leitor foi alijado de participar do momento mais tratado durante toda a historia as personagens em geral sao chatas e nao acrescentam muito o unico merito desta historia e levantar alguns assuntos muito delicados como a eutanasia e o suicidio assistido e as dificuldades reais dos tetraplegicos realidades que estao muito distantes da grande maioria das pessoas conclusao o livro da para passar o tempo mas acrescentou muito pouco</t>
-  </si>
-  <si>
-    <t>infelizmente esse box nao veio em perfeitas condicoes veio cheio de cola nas lombadas e em algumas capas tambem ja solicitei a devolucao do produto esse box tava num preco super barato por isso a qualidade e bem inferior tem um tamanho de biblia pequena e as folhas sao muito transparentes da pra ver o texto do outro lado quanto ao prazo de entrega da amazon foi excelente chegou super rapido em casa pena que nao veio em perfeito estado</t>
-  </si>
-  <si>
-    <t>realmente uma decepcao indignada com o site de nao especificar o produto custa colocar na descricao que e pocket ou versao economica alem da caixa vir toda riscada e amassada os livros com a capa descascando e todos sujos com algo que parece cola as folhas amassadas rasgadas e com as palavras comidas sinceramente nunca achei que fosse passar por uma coisa dessas um site tao bem falado cometer um erro desse nunca mais compro na amazon e ainda vou abrir um processo nada mais justo</t>
-  </si>
-  <si>
-    <t>eu li muitos comentarios aqui reclamando da versao para kindle que era muito ruim com ma formatacao eu ja peguei livros com ma formatacao entao nao me senti incomodado com isso e comprei o problema e que ele realmente e mau formatado de forma que impossibilita a leitura de verdade voce nao consegue ter uma boa leitura de tantas palavras jogadas na tela de qualquer maneira textos alocados em regioes da tela que nao fazem o menor sentido e que parecem tentar te impedir de fazer a leitura de tao mau posicionados eu nao recomendo a compra desse livro na versao para kindle ela e uma ofensa pra quem gasta dinheiro pensando que vai conseguir ler</t>
-  </si>
-  <si>
-    <t>produto fraco livro com paginas brancas e letras pequenas esperava uma qualidade melhor uma obra dessa merecia uma qualidade melhor</t>
-  </si>
-  <si>
-    <t>pior livro que ja li em toda a minha vida enrola muito fala o livro todo da tal da comunidade miracle morning dava raiva antes de virar a pagina ja porque voce sabe que na proxima ele vai dizer entre na comunidade miraclemorning com e veja quantas pessoas se beneficiam disso affff chato chato chato nem sequer 1 base cientificae tudo no achismo quando estava no meio tive curiosidade de ver quais eram as referencias bibliograficas e adivinha nao tem nenhuma nao gastem seu dinheiro tem muitos livros bons por aieste aqui nao vale nem quando esta em promocao me arrependo muito de ter gasto 1790 nele</t>
-  </si>
-  <si>
-    <t>o livro fala o que realmente fazemos e porque fazemos da boas sugestoes para melhorar habitos bons gostei do livro vou relelo e recomendo</t>
-  </si>
-  <si>
-    <t>o livro e excelente mas a avaliacao referese a entrega pela transportadora direct express parcel service sa o local onde a danfe foi afixada na caixa do produto apresentava marca de retirada do plastico visto posteriormente a entrega o pacote em si nao foi violado temo pelo mau uso da danfe em que constam dados importantes como nome completo cpf e endereco do comprador</t>
-  </si>
-  <si>
-    <t>ganhei este livro de presente e foi com tristeza que terminei a leitura quanto tempo perdido livro fraquissimo que subestima a inteligencia do publico jovem o personagem principal e extremamente fraco e o final e rocambolesco e inverossimil nao vale a pena o dinheiro e muito menos o seu tempo</t>
-  </si>
-  <si>
-    <t>muito narrativo nao prende atencao tive aprendizados nao posso negar mas foi muito dificil prestar atencao nas historias narrativas sendo que meu fico era aprender os segredos</t>
-  </si>
-  <si>
-    <t>estou abismada que existem ja avaliacoes negativas a mais de um ano em relacao ao preco deste ebook e mais abismada ainda dele nao ter baixado o preco adquiri recentemente o meu kindle e estou muito feliz com ele e fiquei entusiasmada de adquirir o senhor dos aneis no formato ebook mas quando me deparei com este preco desisti na hora apenas queria saber que logica ha em vender este livro no formato digital neste preco estratosferico bom sera que alguem esta pagando por isto francamente</t>
-  </si>
-  <si>
-    <t>nas primeiras paginas ja temos o proposito do livro depois pura repeticao</t>
-  </si>
-  <si>
-    <t>mais um livro pra falar mal do cristianismo e distorcer a biblia e ainda por cima com um final pessimo se eu recomendo pra alguem nem pro meu inimigo concordo com a opiniao acima de lixo nacional ja estamos cheios nao precisamos de lixo traduzido</t>
-  </si>
-  <si>
-    <t>um livro sensacional tenho aplicado o conceito para adotar novos habitos positivos em varias areas da minha vida bom dia</t>
-  </si>
-  <si>
-    <t>meu box veio todo detonado fiquei triste porque nunca tive problemas com a amazon uma pena demorei tanto pra me decidir comprar esse box e quando compro vem assim</t>
-  </si>
-  <si>
-    <t>mais do mesmo pelo menos acabou so li este livro porque nao consigo deixar series incabadas e a autora prometeu que este sera o ultimo crossfire</t>
-  </si>
-  <si>
-    <t>a caixa veio em um pessimo estado parte de baixo rasgada alem de alguns amassados os livros sao muito pequenos e sensiveis folhas brancas que atrapalham a leitura e tambem nao vieram em um estado muito bom parecia que estava comprando um livro usado nao recomendo a compra so nao devolvo pois paguei um preco muito baixo em uma promocao e teria que pagar pelo frete vai ficar encalhado na minha estante recomendo muito mais comprar os 5 livros originais que se encontram em promocao em diversos sites pelo mesmo valor</t>
-  </si>
-  <si>
-    <t>muito tendencioso pela opiniao lamentavel do autor em varios assuntos tratados por exemplo afirma que os portugueses ajudaram a preservar as florestas e que os indios eram os grandes devastadores esperava encontrar curiosidades interessantes sobre a historia do brasil pois sabemos que nao foi exatamente como retratada nos livros escolares mas vi principalmente piadas de mau gosto</t>
-  </si>
-  <si>
-    <t>chegou rapido incrivelmente rapido na embalagem ainda veio o box percy jackson e mais um livro pequeno nao foram bem embalados e o box do hp veio rasgado e com o livro i amassado bem triste com isso</t>
-  </si>
-  <si>
-    <t>os neologismos nesta versao do livro sao bons mas cansam o leitor ao ter que ficar relembrando os seus significados</t>
-  </si>
-  <si>
-    <t>o livro tem um otimo comeco intrigante que te cativa mas e ladeira abaixo o final e completamente decepcionante as pistaa ao longo da leitura jamais dao a entender o real plot sinceramente o livro e uma introducao a serie mas que poderia ser resumido em um capitulo flashbacks ou mesmo lancado apos como uma prequeal</t>
-  </si>
-  <si>
-    <t>o final decepcionante da trilogia me fez arrepender de ter perdido meu tempo gostando do primeiro e segundo livros e criando expectativas para o terceiro</t>
-  </si>
-  <si>
-    <t>o livro nao responde ou ajuda responder a pergunta de seu titulo percebese claramente que se trata de um autor do sexo masculino branco de meia idade de classe media altaalta dono de empresaempregador nao se adapta a realidade de grande porcentagem da populacao cita falas e apresenta cronicas da vida do autor ou alheia</t>
-  </si>
-  <si>
-    <t>achei o livro muito pesado em razao da traicao em todos os outros livros de nana o personagem principal nao trai a amada pra mim a traicao acabou com a historia de amor</t>
-  </si>
-  <si>
-    <t>por ser versao pocket se espera uma qualidade inferior mas mesmo assim decepcionou as folhas sao brancas e transparentes da para ver o verso por ser pequeno e com grande numero de paginas a leitura se torna desconfortavel nao tem como segurar o livro direito mas claro pra quem quer economizar e e persistente a leitura e possivel</t>
-  </si>
-  <si>
-    <t>se pudesse dar menos que uma estrela eu daria serio o que foi isso eu ja nao era muito fa da serie mas uma vez que li o primeiro livro me obriguei a ler os outros poderia ter parado no terceiro quica no segundo escrever algo que nao diz nada com nada cheio de pontas soltas e um desrespeito com o leitor o dinheiro que gastei com um livro sem graca e frustrante eu compraria 3 nacionais da melhor qualidade por isso mesmo estou devolvendo e nao recomendo</t>
-  </si>
-  <si>
-    <t>desde que harry potter foi lancado escuto reclamarem da editora rocco nos livros ou porque o papel branco suja muito ou as letras douradas saiam facilmente a total inconsistencia nas fontes e formatacoes nos livros uns livros com sumario outros sem etc parece que o pottermore seguiu fielmente a cartilha rocco de como nao publicar um livro dessa vez na edicao digital parece que pegaram o primeiro pdf que encontraram na internet e converteram com a ferramenta de email da propria amazon a traducao tem pequenas diferencas como o original impresso os nomes dos fundadores das casas foram mantidos no original em ingles ao inves das traducoes dos nomes que foram publicados como godrico grifinoria e salazar sonserina o que nao e de todo ruim mas as varias palavras com erros eg chamala tocala e semelhantes por diversas vezes perdem a acentuacao e hifen ficando chamala e tocala muitas palavras que obviamente tinham sido hifenizadas num texto impresso aparecem cortadas no texto corrido alem de em dois livros enigma do principe e camara secreta o texto nao vir justificado mas alinhado a esquerda simplesmente inaceitavel ao comparar com as publicacoes dos livros do pottermore em ingles a situacao fica ainda pior la a formatacao e absolutamente impecavel o que deveria ter sido feito tambem aqui se nao fosse de graca com o unlimited teria sido realmente um dinheiro muito mal gasto felizmente os demais livros que li com o preco da assinatura justificaram o valor do mes</t>
-  </si>
-  <si>
-    <t>por se tratar do autor de caixa de passaros eu imaginava uma estoria muito mais interessante que mtos elogiam o autor pelo seu primeiro sucesso porem nao e isso que encontramos em uma casa no fundo de um lago e um estoria sem enredo sem cenario sem uma trama um livro que nao prende nao assusta nao ha nem um pouco de detalhe nao causa nenhum sentimento unico sentimento que eu tive era de desperdicio por perder meu tempo e meu dinheiro com um livro desse infelizmente eu apostei alguma esperanca nele o que me fez seguir ate o fim com muito esforco porque nao aguentava mais velo na minha frente</t>
-  </si>
-  <si>
-    <t>livro bastante repetitivo onde o autor se promove o tempo todo nao acrescenta muito acredito que e possivel aprender o conteudo do livro atraves do site do autor em menos de 1 hora evitando o desperdicio de tempo na leitura do livro nao vale o preconao recebir este kit dos livros dos 50 tons de cinza por favor queria saber o que ouve queria um retorno</t>
-  </si>
-  <si>
-    <t>esse livro veio com o mesmo problema que o outro umas paginas com manchas de tinta nada gritante mas incomodo a capa dele veio numa tonalidade mais clara que as outras nao tenho certeza se foi erro de impressao ou se as edicoes novas estao vindo assim mesmo esse livro foi decisivo para que eu nao compre mais livros as cegas em lojas digitais</t>
-  </si>
-  <si>
-    <t>pobre e o canalha que atrela sua felicidade a destruicao do proximo como fazem todos os religiosos mesquinhos misticismo nunca leva a nada</t>
-  </si>
-  <si>
-    <t>tratase de um livro muito superficial limitado a um conjunto simplista de receitinhas pretensamente rotuladas de habitos tambem nao tem nada de original e nenhuma fundamentacao mais cientifica da questao embora seja de assimilacao facil e rapida nao exige reflexoes nao compensa o tempo que se vai despender em sua leitura nao recomendo alfredo santanna junior</t>
-  </si>
-  <si>
-    <t>nunca vi alguem escrever tantos dados errados e ter tanto sucesso a comecar dizendo que a humanidade tinha uma vida mais confortavel quando era coletora cuja qualidade piorou com a agricultura ou manipulando trechos da biblia para forcar uma conclusao desonesto este autor</t>
-  </si>
-  <si>
-    <t>esperei mais desse livro nao a hora de ver o final dessa historia que me fascinou a autora conseguiu desrtruir o seu proprio trabalho que decepcao</t>
-  </si>
-  <si>
-    <t>o autor comeca bem mas da metade pra frente se perde nao via a hora de acabar o livro e seguir para o proximo</t>
-  </si>
-  <si>
-    <t>esse tipo de material e responsavel pela desinformacao de muitas pessoas infelizmente vivemos em um pais cuja populacao carece de um conhecimento minimo a respeito de sua historia e o livro em questao e um desservico considerando as barbaridades que sao ditas esse livro deveria estar na secao de ficcao muito mal intencionada lamentavel</t>
-  </si>
-  <si>
-    <t>desde o titulo ao conteudo esse livro e pretensioso e arrogante parece mais uma imatura tese de mestrado colecionando dados bibliograficos encaminhados para uma concepcao preconceituosa e sem nenhuma sabedoria</t>
-  </si>
-  <si>
-    <t>aversao para ler no kindle esta mais cara eu investi nesse aparelho achando que os livros digitais sairiam mais em conta por isso que o brasileiro le muito pouco quando consegue usar parte do dinheiro que ganha no intuito de adquirir um pouco mais de conhecimento acaba tendo esse tipo de decepcao mas respondamme o que justifica esse preco ta saindo mais caro que o papel os pixels na tela atualizacao ontem dia 26 de setembro o preco desse livro estava quase r 3700 hoje dia 27 depois do meu comentario acima esta r 347 o mesmo preco da versao impressa continua injustificado esse valor espero por uma resposta porque isso e serio e cabe uma denuncia obrigado</t>
-  </si>
-  <si>
-    <t>e um classico mas achei desnecessario varios trechos estarem em latim uma lingua que muito pouca gente conhece e acho que devo ter perdido um pouco da trama nao ha necessidade ter tantos trechos em latim</t>
-  </si>
-  <si>
-    <t>se arrependimento matasse estava morto amo ler e aprender procuro comprar e ler pelo menos um livro por mes gastei dinheiro atoa que livro ruim presta um desservico para o intelecto de uma pessoa o autor escreve escreve la no final ele diz que sao apenas deducoes e que nao se pode afirmar nada nao conseguir identificar nenhuma novidade em um livro de mais de 400 paginas amazoncom devolve meu dinheiro ou me da a oportunidade de devolver o livro ou escolher outro por favor esse aqui nao quero nem colocar na minha estante nao quero guardar na minha casa</t>
-  </si>
-  <si>
-    <t>edicao de bolso minuscula sem orelhas folhas brancas o conteudo e o mesmo mas por diferenca de custobeneficio a edicao de luxo compensa mais</t>
-  </si>
-  <si>
-    <t>nossa mesmo pulando paginas e paginas o livro e cansativo estou tao cansada que nao vou escrever mais nada nao recomendoamp</t>
-  </si>
-  <si>
-    <t>grey cinquentas tons e l james nao recomendo livro chato repete repete e repete ruim nao compre sem avaliacao rr</t>
-  </si>
-  <si>
-    <t>comprem os miseraveis de victor hugo editado pela cosac naify traducao impecavel vale muito mais a pena nao julgue um livro apenas pela capa o mesmo vale para crime e castigo da martin claret este ultimo indico pela editora 34</t>
-  </si>
-  <si>
-    <t>nao gostei a leitura nao me empolgou achei a historia rasa e um pouco forcada nao ficou obvio o final para mim mas tambem nao e impressionante voce le e fica tipo ah ok talvez tenha criado muita expectativa</t>
-  </si>
-  <si>
-    <t>comprei um kindle e fiz a assinatura do kindle unlimited justamente para ler a saga quando acabei de ler calice de fogo estava muito empolgado para comecar o quinto livro porem nao esta disponivel pelos comentarios que ha nas avaliacoes ja faz um bom tempo que nao ha como ler a ordem da fenix nao vou esperar a boa vontade da amazon de disponibilizar o titulo vou comprar a versao impressa em alguma livraria para nao perder o fio da meada obviamente nao comprarei na amazon pois me parece bem suspeito esse suposto erro na edicao virtual me fez ter a impressao de que para alem de pagar o unlimited se eu quiser continuar lendo terei que adquirir a versao impressa</t>
-  </si>
-  <si>
-    <t>o livro veio meio amassado um pouco caro para uma edicao de bolso</t>
-  </si>
-  <si>
-    <t>extremamente decepcionada e pouco esse livro foi literalmente de encher linguica a historia de eva e do gideon ja deu o que tinha que dar quis entao comprar so para saber o desfecho dos outros personagens continuei sem saber se a autora tivesse parado no terceiro seria mais honesto</t>
-  </si>
-  <si>
-    <t>o autor usa termos que tem que ser procurado em um glossario atras do livro e isso atrapalha a leitura um livro de leitura cansativa e arrastada fiquei chateada por nao ser aquilo tuso que tanto falam muita propaganda para um conteudo sem atrativos</t>
-  </si>
-  <si>
-    <t>como uma criatura dessas consegue ser uminfluenciador futil sem conteudo vazio meu sobrinho de 9 anos o assistia mesmo sob nossos protestos semana passada ele disse que nao ia mais assistir porque parecia que o felipe ensinava as pessoas a serem burras essa foi a conclusao dele imagine o livro</t>
-  </si>
-  <si>
-    <t>amei o livro inteiro mas confesso que o final nunca passou pela minha cabeca e acabou tirando todo o encanto do livro</t>
-  </si>
-  <si>
-    <t>a capa e as paginas proximas a orelha vieram danificadas e essa nao e a primeira vez que vem assim</t>
-  </si>
-  <si>
-    <t>sempre comprei livros na edicao americana da amazon fiquei feliz com a amazon chegando ao brasil mas nao consigo entender como os precos dos ebooks podem estar tao altos voce tem que comprar um kindle e depois ainda pagar mais caro pela versao digital do livro como isso pode funcionar a versao americana fez sucesso de outra forma espero que mudem a politica aqui no brasil para estimular o consumo de ebooks</t>
-  </si>
-  <si>
-    <t>pelo menos desde 2013 reclamam do abusivo preco nada mudou jaa ten isencao para ebook como livros impressos e tb naada muda que patetico</t>
-  </si>
-  <si>
-    <t>o tema do livro e otimo porem o autor e redundante e repetitivo no decorrer do texto ele deveria aplicar o conceito que defendeu no livro e ser mais sucinto</t>
-  </si>
-  <si>
-    <t>apesar de nao influenciar no conteudo do livro nao e esteticamente legal deveriam ter mais cuidado e conferir a qualidade antes de enviar qualquer produto</t>
+    <t>pessoal cabeca videntes veem ameaca democracia qualquer exatamente mimados nivel superior ouviram professores triste abismo educacional vivido brasil imaginar ocorrendo eua</t>
+  </si>
+  <si>
+    <t>consigo baixar livro lernao consigo adicionar livro biblioteca tentei varias maneiras consegui</t>
+  </si>
+  <si>
+    <t>obra prima idiotice nacional</t>
+  </si>
+  <si>
+    <t>edicao maravilhosa preco bom livro veio rasgado canto superior direito lombada primeira ocorrea amazon costuma ser excelentee preciso dizer</t>
+  </si>
+  <si>
+    <t>comeco leitura mais precisamente tres capitulos achei livro interessante resolvi continuar capitulos seguintes agradaram causa assunto forma escrito milagre manha colocado produto livro pareceu descricao produto varios argumentos venda enfim proposta boa livro fraco opiniao</t>
+  </si>
+  <si>
+    <t>simples assim formatacao tao ruim perdi vontade ler livro texto fica lado esquerdo ocupando apenas metade pagina pagina acaba frases</t>
+  </si>
+  <si>
+    <t>pessimo acredito escreveu livro continuidade livro chato fala decepcao irritada melhor livro final</t>
+  </si>
+  <si>
+    <t>fiquei satisfeita velocidade entrega valor frete comprei produto presente aniversario paguei cartao presente embrulho vei embalado maneira normal caixa box chegou danificada rasgada laterais assim volume orelha gigante contracapa houvesse dobrada maneira proposital havia cola lombada volume 3 volume 5 laterais capas amacadas produtos chegaram seriamente danificados desapontada falta respeito cliente voce paga produto servico deseja chega excelentes condicoes mao iria devolucao pessoa presenteei tranquilamente aceito produto danificado</t>
+  </si>
+  <si>
+    <t>varios personagens desfecho final pe cabeca temos eva chorona precisava livro expectativa</t>
+  </si>
+  <si>
+    <t>gostei apenas conceitos validos livro produtividade david allen melhor apresenta etapas exemplos</t>
+  </si>
+  <si>
+    <t>li metade livro empolgacao achando ia melhorar metade apenas arrastei pra terminar ler estoria prende senas sexo muiiiito monotonas livro chato entendiante facil ler sim onde bem escrito mocinho problemas rico 27 anos dono imperio mocinha patricinha problemas chata acontece saiu correndo mocinho amor completamente exagerado semana cara manda replica quarto eva casa oi chato chato chato</t>
+  </si>
+  <si>
+    <t>comprei edicao acreditando tratarse otima aquisicao decepcionei capa maravilhosa conteudo livro preferido traducao bem meiaboca recheada erros concordancia infiel original</t>
+  </si>
+  <si>
+    <t>leonardo davinci artista revolucionario nenhuma duvida autor consegue transformar historia chatice repetitiva empolga alem dois capitulos optar debrucar paginas cadernos leonardo issacson escolhe informacoes vezes absolutamente irrelevantes parecem estar ali dar ideia artista apenas encher paginas repetir informacoes casos dadas momentos anteriores livro alem analises minuciosas obras leonardo acabam ficando desinteressantes conhecedor arte vezes chatas leitura arraste desconfio leonardo assim teria largado livro metade procurado algo mais interessante ler</t>
+  </si>
+  <si>
+    <t>livro otimo oque indignado paguei 4941 kindler livro normal saraivaamericana submarino custa 3990 assim desanimador comprar grato</t>
+  </si>
+  <si>
+    <t>recebi volume demais volumes postados obras completas resumem volume</t>
+  </si>
+  <si>
+    <t>fiz configurar kindle conclui problema ibook importa tamanho letra separacao letras final linhas fica completamente errada tipo independente acontece livros comprei ruim ler assim</t>
+  </si>
+  <si>
+    <t>realmente triste sucesso ser vendido versao digital teve custo minimo producao custo 0 venda preco 2x maior produto fisico teve custos producao distribuicao infinitamente maiores digital simplesmente lamentavel amazon perdeu respeito empresa</t>
+  </si>
+  <si>
+    <t>livro veio mal lavrado pontas livros amassados</t>
+  </si>
+  <si>
+    <t>parece autor leu livro</t>
+  </si>
+  <si>
+    <t>livro leve facil leitura linguagem simples simploria cheio obviedades senso comum acrescenta quase nada ser bestseller brasil</t>
+  </si>
+  <si>
+    <t>sou influenciada digitalmente entao cedi hype autora comprei livro bonitinho ilustracoes legais entendi animos exacerbados obra poesia instagram falo entonacao positiva rapida leviana descartavel poemas salvam sopro boa escrita meio diversas paginas desperdicadas poesias curtas tres linhas vieram</t>
+  </si>
+  <si>
+    <t>livro superficial escrito impressionar leitores ignaros apreciam leitura sensacionalista mistura fatos reais inverdades recomendo</t>
+  </si>
+  <si>
+    <t>desisti mais 30 livro li livros principes castelanni amei livro cenas picantes inicio personagens eram incoerentes tive sensacao eram pessoas sentimentos reais difere filme erotico livro tanto encanta mulheres</t>
+  </si>
+  <si>
+    <t>sapiens breve historia humanidade realmente realmente livro interessante homo deus decepciona nada fala chegaremos amanha</t>
+  </si>
+  <si>
+    <t>tenho plena consciencia sou unica pessoa mundo gosta livro</t>
+  </si>
+  <si>
+    <t>babaca achando sabe relevante humanidade</t>
+  </si>
+  <si>
+    <t>editora copia cola livros editora chamada centaur lanca livros dostoievski traducoes arcaicas seculo xix geralmente traducoes frances infelizmente brasil unica editora traduz livros dostoievski direto russo editora 34 lanca livros formato kindle</t>
+  </si>
+  <si>
+    <t>dicas boas nada novo verdade bem obvias acredito maior parte pessoas conhecem ponto vista livro fraco comprei titulo</t>
+  </si>
+  <si>
+    <t>autor descreve deus coaching referencias horas trabalho programa tempo faz propaganda programa coaching mais livro prenda atencao simples boa maneira</t>
+  </si>
+  <si>
+    <t>conceitos abordados livro podem ser sorte aplicados relacoes modo geral fluem livro cita principalmente mundo corporativo parece leitor acha devemos ser madre teresa calcuta realidade completamente diferente leitor chega ponto dizer devemos elogiar erros alheios parece mais papo comunistinha socialista queira realmente vencer vida exemplos abordados livro historias bem superficiais pra real nada daquilo ali vc ve homens posicao conviccoes mudarem postura elogios futeis enfim livro bem agua acucar condiz popularidade midia ler livros pupilo napolleon hill melhores mormente discipulo superou mestre</t>
+  </si>
+  <si>
+    <t>fiquei decepcionada autora esperava mais livro acabou historia gideon eva nesse volume esperava desfecho melhor sabe final feliz deixam medos traumas pra tras vao pra lua mel esperava filhos teve triste perdi tempo lendo</t>
+  </si>
+  <si>
+    <t>estoria bem elaborada deixa protagonista machistae oque acontece escritores pensam protecao achei parte hot repetitiva</t>
+  </si>
+  <si>
+    <t>leitura arrastada vezes tive sensacao lido livro vezes recomendo pra gosta premissa fato</t>
+  </si>
+  <si>
+    <t>produto horrivel veio varias paginas branco</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>popularizacao ebook houve falsa ideia baratear preco obras digitais visto maioria livros venda aqui encontramse mais caros versao papel ledo engano pensar substituiria livros tradicionais ebook continuarei comprando livros usufruindo ebook 12 reais julgo preco justo</t>
+  </si>
+  <si>
+    <t>livro chato gente quase consegui terminar ler livro fui realmente insistente historia casa cansa parecem personagens pessoas inicio livro ai vc defender falar amadureceram puxa vida saco amadureceram ficaram extremamente sacal historia perdeu terminado terceiro livro ponto livros vender desrespeito leitores caso serie exatamente li terminar pulei mais metade paginas trama livro envolvente acrescenta nada pior ficaram pontas soltas recomendo livro</t>
+  </si>
+  <si>
+    <t>compreendo atraso enorme quase duas semanas causa greve caminhoneiros justifica livro chegar capa amassada duas folhas amassadas sinceramente esperava mais</t>
+  </si>
+  <si>
+    <t>livro apenas comenta leitura rapida realmente decepcionante gostaria obter dinheiro volta comprem</t>
+  </si>
+  <si>
+    <t>palavras gostei nada costuma acontecer certos best sellers autor parte premissa disposto avaliar opinioes tira conclusoes qualquer embasamento verdade dita entendi tanta aclamacao obra</t>
+  </si>
+  <si>
+    <t>apresentase livro autoajuda voce comecar ler vai trata livro historia habito assemelhase mais livro didatico faculdade penso objetivo trazer tecnica incorporar determinado habito vida livro ser reduzido 75 ser voce entusiasta queria saber primordios assunto recomendo</t>
+  </si>
+  <si>
+    <t>entendi proposta livro creio ser tocante pessoas tive certo receio abrir toque momento beleza livro esteja contemplar partir certa otica achei angulo certo</t>
+  </si>
+  <si>
+    <t>obra excelente chateou box amassado livro paraiso gravuras junto textos agradou ficando livreto parte ajuda melhorar box box tipo literatura mais cuidado</t>
+  </si>
+  <si>
+    <t>box chegou amassados riscos especie cola grudada parte externa livros unica vantagem vi tempo entrega 2 dias esperava mais empresa amazon</t>
+  </si>
+  <si>
+    <t>livros capas otimos bonitos problemas box guarda livros infelizmente veio rasgado</t>
+  </si>
+  <si>
+    <t>texto academico embasamento historico escrito historiador preco acordo baixa qualidade</t>
+  </si>
+  <si>
+    <t>enredo acaba livro suspense restante perguntas responder concluidos livro faz 2 livros insurgente convergente desnecessarios enchecao linguica respondendo perguntas eram tao importantes assim alem tentar final surpresa falhar nisso deixando deprimente triste livro otimo passo enredo etc</t>
+  </si>
+  <si>
+    <t>pessoal voces dar atencao maior produto valor sou fa serie vejo problema ruim comprador temos 2 livros formatacao danificada justificar camara secreta enigma principe lancar atualizacao livros acredito iria agradar leitores aguardo respostas</t>
+  </si>
+  <si>
+    <t>aterei historia sucesso consagrado edicao bolso deseja desejar paginas tao brancas impossivel ler espaco aberto bastasse folhas tao finas possivel enxergar escrito pagina seguinte realmente torna leitura ser tao proveitosa algo desconfortavel extremo decepcionada edicao vale investir</t>
+  </si>
+  <si>
+    <t>livro historia rasa previsivel embora livro leitura flui bem bem escrito</t>
+  </si>
+  <si>
+    <t>recomendo conteudo futil pobre informacoes mais vale ler revista caras voce estara perdendo menos tempo</t>
+  </si>
+  <si>
+    <t>gostei livro escrito formas emails mensagens deu impressao encontra marcam encontrar emocao leitor sabe mensagem festa legal bom emocao final capitulo faz querer ler mais mais opiniao amiga gostou achou diferente</t>
+  </si>
+  <si>
+    <t>textos soltos trechos bem reflexivos natureza feminina sentimentos relacionamentos esperava mais poesia profundidade</t>
+  </si>
+  <si>
+    <t>autor vende mais imagem ideias pretendia mostrar livro superficial tecnicas nada inovadoras desconhecidas usualmente</t>
+  </si>
+  <si>
+    <t>preco existe menor cabimento melhor assistir novela desculpa editora pra vender livro preco</t>
+  </si>
+  <si>
+    <t>livro prolixo redundante doentio sou suspeito falar terror psicologico gosto tema king faz aqui minimo desgosto livro horrivel mais proximo final mais esquisito fica cenas estupro abuso sexual mais presentes odiei livro recomendaria deixe ler ser voce goste</t>
+  </si>
+  <si>
+    <t>coaching virou modismo assim criticalo infeliz realidade preciso assumir profundo amante autodesenvolvimento consegui obter diversos insights uteis durante leitura qualquer forma pra extrair boas ideais praxe mundo coaching paginas comecam encher mensagens afirmacoes embasamento verdadeira compilacao achismo falsas verdades baseadas principios infudados tirados cabeca autor fontes semelhantes comprovacoes impiricas validas qualquer alicerce cientifico sustente contrario livro conta frequentes exemplos citacoes passam descancaradamente pseudociencia toque sensacionalismo charlatanismo alem varias referencias fontes varias parcialmente falsas escritor inocente manipulador intuito corrobar ideais ambos casos fazem jus titulo phd esquecendo inumeros depoimentos minimo levemento modificados parecerem mais grandiosos resumo voce procura livro nivel habito recomendo leitura caso voce queira obter insights vida dicas praticas vale leitura desde esteje atento tantas ressalvas ps querer encharquei livro cafe menos livro bom rsrs</t>
+  </si>
+  <si>
+    <t>livro cortella previsivel superficial chegando quase ser copia publicacoes classicas area analise comportamental habitos cortella cita longo livro comportamentos citados avo problema livro fato autor conexoes pensamentos filosofias cunho socialista esquerdista acabando ser extremamente parcial</t>
+  </si>
+  <si>
+    <t>li sinopse livro esperava tratarse romance verdade final infeliz verdade tratase historia amor pessoa final contas protagonista mulher envolvida homem egocentrico amava acima suportava ideia ser mais passado protagonista fez centro vida dispos sacrificar homem recusou homem ajuda tentativa espelho final ser mais elaborado ficou sensacao leitor alijado participar momento mais tratado durante historia personagens geral chatas acrescentam unico merito historia levantar assuntos delicados eutanasia suicidio assistido dificuldades reais tetraplegicos realidades distantes maioria pessoas conclusao livro passar tempo acrescentou</t>
+  </si>
+  <si>
+    <t>infelizmente box veio perfeitas condicoes veio cheio cola lombadas capas solicitei devolucao produto box tava preco super barato qualidade bem inferior tamanho biblia folhas transparentes pra texto lado prazo entrega amazon excelente chegou super rapido casa pena veio perfeito estado</t>
+  </si>
+  <si>
+    <t>realmente decepcao indignada site especificar produto custa colocar descricao pocket versao economica alem caixa riscada amassada livros capa descascando sujos algo parece cola folhas amassadas rasgadas palavras comidas sinceramente achei passar site tao bem falado cometer erro mais compro amazon vou abrir processo nada mais justo</t>
+  </si>
+  <si>
+    <t>li comentarios aqui reclamando versao kindle ruim ma formatacao peguei livros ma formatacao entao senti incomodado comprei problema realmente mau formatado forma impossibilita leitura verdade voce consegue boa leitura tantas palavras jogadas tela qualquer maneira textos alocados regioes tela fazem menor sentido parecem tentar impedir leitura tao mau posicionados recomendo compra livro versao kindle ofensa pra gasta dinheiro pensando vai conseguir ler</t>
+  </si>
+  <si>
+    <t>produto fraco livro paginas brancas letras esperava qualidade melhor obra merecia qualidade melhor</t>
+  </si>
+  <si>
+    <t>pior livro li vida enrola fala livro tal comunidade miracle morning dava raiva virar pagina voce sabe proxima vai dizer comunidade miraclemorning veja quantas pessoas beneficiam affff chato chato chato sequer 1 base cientificae achismo meio tive curiosidade eram referencias bibliograficas adivinha nenhuma gastem dinheiro livros bons aieste aqui vale promocao arrependo gasto 1790 nele</t>
+  </si>
+  <si>
+    <t>livro fala realmente fazemos fazemos boas sugestoes melhorar habitos bons gostei livro vou relelo recomendo</t>
+  </si>
+  <si>
+    <t>livro excelente avaliacao referese entrega transportadora direct express parcel service sa local onde danfe afixada caixa produto apresentava marca retirada plastico visto posteriormente entrega pacote violado temo mau uso danfe constam dados importantes nome completo cpf endereco comprador</t>
+  </si>
+  <si>
+    <t>ganhei livro presente tristeza terminei leitura tempo perdido livro fraquissimo subestima inteligencia publico jovem personagem principal extremamente fraco final rocambolesco inverossimil vale pena dinheiro menos tempo</t>
+  </si>
+  <si>
+    <t>narrativo prende atencao tive aprendizados negar dificil prestar atencao historias narrativas fico aprender segredos</t>
+  </si>
+  <si>
+    <t>abismada existem avaliacoes negativas mais ano relacao preco ebook mais abismada baixado preco adquiri recentemente kindle feliz fiquei entusiasmada adquirir senhor aneis formato ebook deparei preco desisti hora apenas queria saber logica vender livro formato digital neste preco estratosferico bom pagando francamente</t>
+  </si>
+  <si>
+    <t>primeiras paginas temos proposito livro pura repeticao</t>
+  </si>
+  <si>
+    <t>mais livro pra falar mal cristianismo distorcer biblia cima final pessimo recomendo pra pro inimigo concordo opiniao acima lixo nacional cheios precisamos lixo traduzido</t>
+  </si>
+  <si>
+    <t>livro sensacional tenho aplicado conceito adotar novos habitos positivos varias areas vida bom dia</t>
+  </si>
+  <si>
+    <t>box veio detonado fiquei triste tive problemas amazon pena demorei tanto pra decidir comprar box compro vem assim</t>
+  </si>
+  <si>
+    <t>mais menos acabou li livro consigo deixar series incabadas autora prometeu crossfire</t>
+  </si>
+  <si>
+    <t>caixa veio pessimo estado parte baixo rasgada alem amassados livros sensiveis folhas brancas atrapalham leitura vieram estado bom parecia comprando livro usado recomendo compra devolvo paguei preco baixo promocao teria pagar frete vai ficar encalhado estante recomendo mais comprar 5 livros originais encontram promocao diversos sites valor</t>
+  </si>
+  <si>
+    <t>tendencioso opiniao lamentavel autor varios assuntos tratados exemplo afirma portugueses ajudaram preservar florestas indios eram devastadores esperava encontrar curiosidades interessantes historia brasil sabemos exatamente retratada livros escolares vi principalmente piadas mau gosto</t>
+  </si>
+  <si>
+    <t>chegou rapido incrivelmente rapido embalagem veio box percy jackson mais livro bem embalados box hp veio rasgado livro i amassado bem triste</t>
+  </si>
+  <si>
+    <t>neologismos versao livro bons cansam leitor ficar relembrando significados</t>
+  </si>
+  <si>
+    <t>livro otimo comeco intrigante cativa ladeira abaixo final completamente decepcionante pistaa longo leitura jamais dao entender real plot sinceramente livro introducao serie ser resumido capitulo flashbacks lancado prequeal</t>
+  </si>
+  <si>
+    <t>final decepcionante trilogia fez arrepender perdido tempo gostando segundo livros criando expectativas terceiro</t>
+  </si>
+  <si>
+    <t>livro responde ajuda responder pergunta titulo percebese claramente trata autor sexo masculino branco meia idade classe media altaalta dono empresaempregador adapta realidade porcentagem populacao cita falas apresenta cronicas vida autor alheia</t>
+  </si>
+  <si>
+    <t>achei livro pesado razao traicao livros nana personagem principal trai amada pra mim traicao acabou historia amor</t>
+  </si>
+  <si>
+    <t>ser versao pocket espera qualidade inferior assim decepcionou folhas brancas transparentes verso ser numero paginas leitura torna desconfortavel segurar livro direito claro pra quer economizar persistente leitura possivel</t>
+  </si>
+  <si>
+    <t>pudesse dar menos estrela daria serio fa serie li livro obriguei ler parado terceiro quica segundo escrever algo nada nada cheio pontas soltas desrespeito leitor dinheiro gastei livro graca frustrante compraria 3 nacionais melhor qualidade devolvendo recomendo</t>
+  </si>
+  <si>
+    <t>desde harry potter lancado escuto reclamarem editora rocco livros papel branco suja letras douradas saiam facilmente total inconsistencia fontes formatacoes livros livros sumario etc parece pottermore seguiu fielmente cartilha rocco publicar livro edicao digital parece pegaram pdf encontraram internet converteram ferramenta email amazon traducao diferencas original impresso nomes fundadores casas mantidos original ingles inves traducoes nomes publicados godrico grifinoria salazar sonserina ruim varias palavras erros eg chamala tocala semelhantes diversas vezes perdem acentuacao hifen ficando chamala tocala palavras obviamente hifenizadas texto impresso aparecem cortadas texto corrido alem dois livros enigma principe camara secreta texto justificado alinhado esquerda simplesmente inaceitavel comparar publicacoes livros pottermore ingles situacao fica pior formatacao absolutamente impecavel aqui graca unlimited teria realmente dinheiro mal gasto felizmente demais livros li preco assinatura justificaram valor mes</t>
+  </si>
+  <si>
+    <t>tratar autor caixa passaros imaginava estoria mais interessante mtos elogiam autor sucesso encontramos casa fundo lago estoria enredo cenario trama livro prende assusta detalhe causa sentimento unico sentimento tive desperdicio perder tempo dinheiro livro infelizmente apostei esperanca nele fez seguir fim esforco aguentava mais velo frente</t>
+  </si>
+  <si>
+    <t>livro bastante repetitivo onde autor promove tempo acrescenta acredito possivel aprender conteudo livro site autor menos 1 hora evitando desperdicio tempo leitura livro vale preconao recebir kit livros 50 tons cinza favor queria saber ouve queria retorno</t>
+  </si>
+  <si>
+    <t>livro veio problema paginas manchas tinta nada gritante incomodo capa veio tonalidade mais clara tenho certeza erro impressao edicoes novas assim livro decisivo compre mais livros cegas lojas digitais</t>
+  </si>
+  <si>
+    <t>pobre canalha atrela felicidade destruicao proximo fazem religiosos mesquinhos misticismo leva nada</t>
+  </si>
+  <si>
+    <t>tratase livro superficial limitado conjunto simplista receitinhas pretensamente rotuladas habitos nada original nenhuma fundamentacao mais cientifica questao embora assimilacao facil rapida exige reflexoes compensa tempo vai despender leitura recomendo alfredo santanna junior</t>
+  </si>
+  <si>
+    <t>vi escrever tantos dados errados tanto sucesso comecar dizendo humanidade vida mais confortavel coletora cuja qualidade piorou agricultura manipulando trechos biblia forcar conclusao desonesto autor</t>
+  </si>
+  <si>
+    <t>esperei mais livro hora final historia fascinou autora conseguiu desrtruir trabalho decepcao</t>
+  </si>
+  <si>
+    <t>autor comeca bem metade pra frente perde via hora acabar livro seguir proximo</t>
+  </si>
+  <si>
+    <t>tipo material responsavel desinformacao pessoas infelizmente vivemos pais cuja populacao carece conhecimento minimo respeito historia livro questao desservico considerando barbaridades ditas livro estar secao ficcao mal intencionada lamentavel</t>
+  </si>
+  <si>
+    <t>desde titulo conteudo livro pretensioso arrogante parece mais imatura tese mestrado colecionando dados bibliograficos encaminhados concepcao preconceituosa nenhuma sabedoria</t>
+  </si>
+  <si>
+    <t>aversao ler kindle mais cara investi nesse aparelho achando livros digitais sairiam mais conta brasileiro le consegue usar parte dinheiro ganha intuito adquirir mais conhecimento acaba tipo decepcao respondamme justifica preco ta saindo mais caro papel pixels tela atualizacao ontem dia 26 setembro preco livro quase r 3700 hoje dia 27 comentario acima r 347 preco versao impressa continua injustificado valor espero resposta serio cabe denuncia obrigado</t>
+  </si>
+  <si>
+    <t>classico achei desnecessario varios trechos estarem latim lingua gente conhece acho devo perdido trama necessidade tantos trechos latim</t>
+  </si>
+  <si>
+    <t>arrependimento matasse morto amo ler aprender procuro comprar ler menos livro mes gastei dinheiro atoa livro ruim presta desservico intelecto pessoa autor escreve escreve final apenas deducoes afirmar nada conseguir identificar nenhuma novidade livro mais 400 paginas amazoncom devolve dinheiro oportunidade devolver livro escolher favor aqui quero colocar estante quero guardar casa</t>
+  </si>
+  <si>
+    <t>edicao bolso minuscula orelhas folhas brancas conteudo diferenca custobeneficio edicao luxo compensa mais</t>
+  </si>
+  <si>
+    <t>pulando paginas paginas livro cansativo tao cansada vou escrever mais nada recomendoamp</t>
+  </si>
+  <si>
+    <t>grey cinquentas tons l james recomendo livro chato repete repete repete ruim compre avaliacao rr</t>
+  </si>
+  <si>
+    <t>comprem miseraveis victor hugo editado cosac naify traducao impecavel vale mais pena julgue livro apenas capa vale crime castigo martin claret indico editora 34</t>
+  </si>
+  <si>
+    <t>gostei leitura empolgou achei historia rasa forcada ficou obvio final mim impressionante voce le fica tipo ah ok criado expectativa</t>
+  </si>
+  <si>
+    <t>comprei kindle fiz assinatura kindle unlimited justamente ler saga acabei ler calice fogo empolgado comecar quinto livro disponivel comentarios avaliacoes faz bom tempo ler ordem fenix vou esperar boa vontade amazon disponibilizar titulo vou comprar versao impressa livraria perder fio meada obviamente comprarei amazon parece bem suspeito suposto erro edicao virtual fez impressao alem pagar unlimited quiser continuar lendo terei adquirir versao impressa</t>
+  </si>
+  <si>
+    <t>livro veio meio amassado caro edicao bolso</t>
+  </si>
+  <si>
+    <t>extremamente decepcionada livro literalmente encher linguica historia eva gideon deu dar quis entao comprar saber desfecho personagens continuei saber autora tivesse parado terceiro seria mais honesto</t>
+  </si>
+  <si>
+    <t>autor usa termos ser procurado glossario atras livro atrapalha leitura livro leitura cansativa arrastada fiquei chateada ser tuso tanto falam propaganda conteudo atrativos</t>
+  </si>
+  <si>
+    <t>criatura consegue ser uminfluenciador futil conteudo vazio sobrinho 9 anos assistia protestos semana passada ia mais assistir parecia felipe ensinava pessoas serem burras conclusao imagine livro</t>
+  </si>
+  <si>
+    <t>amei livro inteiro confesso final passou cabeca acabou tirando encanto livro</t>
+  </si>
+  <si>
+    <t>capa paginas proximas orelha vieram danificadas primeira vem assim</t>
+  </si>
+  <si>
+    <t>comprei livros edicao americana amazon fiquei feliz amazon chegando brasil consigo entender precos ebooks podem estar tao altos voce comprar kindle pagar mais caro versao digital livro funcionar versao americana fez sucesso forma espero mudem politica aqui brasil estimular consumo ebooks</t>
+  </si>
+  <si>
+    <t>menos desde 2013 reclamam abusivo preco nada mudou jaa ten isencao ebook livros impressos tb naada muda patetico</t>
+  </si>
+  <si>
+    <t>tema livro otimo autor redundante repetitivo decorrer texto aplicar conceito defendeu livro ser mais sucinto</t>
+  </si>
+  <si>
+    <t>apesar influenciar conteudo livro esteticamente legal mais cuidado conferir qualidade enviar qualquer produto</t>
   </si>
   <si>
     <t>rasgos</t>
   </si>
   <si>
-    <t>acho um absurdo o preco que a amazon coloca em um titulo como este em outros estabelecimentos e possivel comprar uma caixa promocional com os 5 livros fisicos e ainda vem mais um de brinde por r12000 se eu comprar aqui gastaria quase r14000 pela midia digital isto e um absurdo a amazon tem que rever esses precos ja que beiram ao ridiculo</t>
-  </si>
-  <si>
-    <t>a obra e pessima e nao entendo porque e tao falada nao consegui chegar ao fim tratase de uma historia de uma mulher deprimida para quem tudo da errado alcoolica e ate o ponto em que suportei ler nao acontece nada a nao ser recordacoes de desgraca de uma vida sem sentido de amor que nao deu certo nao tem interesse algum nem prende o leitor</t>
-  </si>
-  <si>
-    <t>chato trechos sobre a personagem principal extremamente repetitivos acredito que e um livro para adolescentes muitos vao se identificar com os personagens</t>
-  </si>
-  <si>
-    <t>decepcionante o livro se contradiz totalmente a partir do seu prefacio quando utiliza a frase nem tente como um marco e propaga justamente o contrario nas paginas que seguem um texto de blog seria mais instrutivo</t>
-  </si>
-  <si>
-    <t>odiei a historia e contava atraves das trocas de emails e cartas pela primeira vez achei o filme mais legal</t>
-  </si>
-  <si>
-    <t>essa versao combo ebook de as cronicas de gelo e fogo possui inumero erros de portugues de ortografia e concordancias nominal e verbal alem de ter diversas palavras grudadas umas nas outras ja entrei em contato com o sac da editora leya e ele dizem que vao corrigir mas nao o fazem ja faz mais de um mes e nada foi feito agora nem respondem mais os meus emails</t>
-  </si>
-  <si>
-    <t>recebi o produto todo amassado e com paginas dobradas e marcadas nao valeu a pena foi de pessima qualidade o servico</t>
-  </si>
-  <si>
-    <t>a responsabilidade da amazon e fazer promocao com o produto ruim que e a pessima edicao deste livro ao inves de desistir de vendela quero ver e dar um desconto desses nas versoes melhores</t>
-  </si>
-  <si>
-    <t>ha alguns dias atras adquiri um produto na amazon box sherlock holmes da editora harper collins fiquei feliz pois tamanha era a acessibilidade do preco um dos mais baratos se comparado a outras lojas entretanto hoje ao receber meu box me deparei com uma caixa bastante estreita surpreendendome por nao vir com se quer uma espuma ou plastico bolha afinal livros sao materiais bastante sensiveis apos a retirada da caixa que estava tambem amassada vi que o box estava amassado em quase todas as bordaso que me pareceu pancadas muito fortes com muitos arranhoes e riscos certo que a transportadora encarregada tem boa parte da culpa mas o que custa colocar em uma embalagem maior e mais aconchegante para o produto creio que nao irei dar entrada no processo de troca pois a burocracia e a demora para avaliar e reentregar o produto nao valeriam a pena minha unica felicidade e que os livros apesar da capa ter vindo um pouco amassada tambem nao foram comprometidos em sua parte mais importante que e a leitura porem o produto perdeu todo seu requinte que e o que mais chama a atencao do consumidor na hora da compra esta foi a primeira vez que comprei na amazon porem acho que sera a ultima visto que o custo acessivel nao vale apena tendo em vista o descuido na entrega do mesmo</t>
-  </si>
-  <si>
-    <t>muito ruim uma serie de repeticoes desnecessariasum insulto ao leitor que acompanhou a historia um verdadeiro horror nao comprem dinheiro jogado fora</t>
-  </si>
-  <si>
-    <t>o livro e bom mas me confundi bastante as palavras estranhas presentes em todo o livro atrapalharam a compreensao de todo o conteudo</t>
-  </si>
-  <si>
-    <t>nossos parentes vivos mais proximos incluem chimpanzes os gorilas e os orangotangos os chimpanzes sao os mais proximos ha apenas 6 milhoes de anos uma femea primata teve duas filhas uma delas se tornou a ancestral de todos os chimpanzes a outra e nossa avo ate hoje nao foi encontrada prova de evolucao ou seja nao ha prova de que um anfibio se tornou reptil ou que um chimpanze se tornou humano somente especulacoes baseadas em ideias tem que ter mais fe para cer nessa historia do que para crer que deus criou o universo e tudo que ha nele mais um livro da moda do ateismo</t>
-  </si>
-  <si>
-    <t>tenho muitos livros sobre a segunda guerra mundial ja que sou muito interessado na historia das guerras mas este livro me decepcionou ele e muito parcial pois tenta mostrar o nazismo como o imperio do mal sobre as barbaridades cometidas por stalin nenhuma palavra e quando fala e para dizer que a culpa e do hitler transforma a polonia numa coitadinha nao explica que a polonia no tratado de versailhes tomou territorio alemao e ainda continuou apos a guerra reivindicando mais territorios da alemanha nao cita tambem que a franca exigia reparacoes de guerra que a alemanha nao podia pagar nao fala que os estados unidos enviaram dinheiro para a alemanha pagar as reparacoes que woodrow wilson o presidente americano achava excessivasisso perdurou ate 1929 quando houve a grande queda da bolsa de valores com esse quadro se esquecem de dizer que hitler foi eleito chanceler da alemanha com maioria absoluta dos votos e pior o livro nao esclarece direito que a polonia foi dividida entre hitler e stalin pois a hitler so interessava recuperar os territorios roubados da alemanha digo que este livro e o pior livro sobre a segunda guerra que eu li se bem que nao li ele todo pois nao quis passar nervoso e indignacao nao recomendo</t>
-  </si>
-  <si>
-    <t>a obra de arthur conan doyale e simplesmente excepcional esta edicao esta impecavel recebi a encomenda antes do prazo previsto porem a caixa box onde os livros vem esta com a lateral totalmente amacada um descuido que poderia ter sido evitado com uma melhor embalagem sempre compro livros no amazon porem desta vez fiquei decepcionada</t>
-  </si>
-  <si>
-    <t>tao ruim que nao consegui terminar de ler preferi parar e ficar com a boa recordacao do livro anterior do que estragar tudo com essa historia arrastada</t>
-  </si>
-  <si>
-    <t>podem me explicar do porque deste preco pra versao digital quase o mesmo preco da versao fisica e mais cara que a versao pocket qual a jutificativa pra tal abuso transporte nao e nem o papinho de manutencao de software pq isso vc paga uma vez por ano e so uma copia do que ja tem impresso wtf</t>
-  </si>
-  <si>
-    <t>o livro e de autoajuda e deveria ser vendido como tal nao gostei alem de ser muito mas muito repetitivo</t>
-  </si>
-  <si>
-    <t>ja parei de ler historia sem graca</t>
-  </si>
-  <si>
-    <t>confesso que quase desisti de ler a biografia da rita lee cheguei ate uns 35 e cansei o que se iniciou super bem divertido ate passou a ser arrastado ao citar em detalhes o panorama musical em que ela comecou anterior ao meu conhecimento musical ela e de 1947 e que me deixava perdida nas explanacoes segui pulando as partes muito descritivas de shows nao ha duvidas que rita lee teve uma vida tumultuada cheia de eventos incomuns e seu livro e um relato bem humorado de tudo que ela viveu no entanto e uma leitura para fas de carteirinha nao tem muito ritmo para quem esta em busca de um livro gostoso</t>
-  </si>
-  <si>
-    <t>o bacana desse livro e a liberdade da rita se escrever o que estava com vontade nao espere tratados musicais nem nada do tipo e mais sobre a vida dela meio que nao se importando com as opinioes quem espera algo relativo aos mutantes vai se decepcionar ela esta amargurada e nao esconde isso de ninguem achei superficial tambem</t>
-  </si>
-  <si>
-    <t>apesar do autor se dominar o homem que impactou mais de 20 milhoes de pessoas e um livro superficial as obras do paulo vieira sao uma compilacao de teorias psicologicas e sociologicas diluidas em estrategias de marketing fortissimas para leigos pode ser um livro muito interessante mas para estudiosos e profissionais e um livro raso comercial e que parece querer promover o metodo cis</t>
-  </si>
-  <si>
-    <t>entrei num endereco sobre o ganho de um livro em kindle no dia 303 escolho o livro e imediatamente ao fazer meu login o valor eh debitado do meu cartao um absurdo nao queria comprar o livro solicito uma devolucao imediata do valor</t>
-  </si>
-  <si>
-    <t>espero que ninguem compre pagar o mesmo preco de um livro em papel por um livro virtual ja e inaceitavel quem dira mais caro estou decepcionado e muito desmotivado para adquirir o aparelho kindle</t>
-  </si>
-  <si>
-    <t>meu box veio com a lateral descolando apresentando bolhas de ar por conta do descolamento mas fora isso o box e lindo</t>
-  </si>
-  <si>
-    <t>cheio de teorias da conspiracao</t>
-  </si>
-  <si>
-    <t>fiz a compra errada era pra comprar o livro e acabei comprando esse kindle quero cancelar a compra do kindle o segredo da mente milionaria obrigada karla</t>
-  </si>
-  <si>
-    <t>esperava mais de toda forma vale como cultura pop talvez por ter tantos ensinamentos importantes seja tao popular obrigada de nada</t>
-  </si>
-  <si>
-    <t>ja resolvi o problema com a amazon pelo que sou grata porem tenho que comentalo ja havia lido em algum comentario aqui que a pessoa recebeu um livro com paginas trocadas e eu tive o mesmo problema da pagina 224 o livro pula para a 257 chagando na 288 repetemse as paginas desde a 257 poxa esse livro nao me serve para nada alem do fato de o papel polen do miolo do livro e de baixa qualidade parecendo um papel de jornal como aconteceu tambem com o segundo livro da mesma serie que inclusive tinha ate paginas bem apagadas no meio os demais livros da serie que comprei sao em papel de melhor qualidade disparados ainda o papel de capa e fininho e a diagramacao letras bem pequenas espacamento entre linhas apertado isso tudo que faz desta versao comemorativa nada mais do que uma versao economica</t>
-  </si>
-  <si>
-    <t>comprei a versao ebook kindle e me arrependi profundamente claramente nao passaram muito tempo polindo ela existem diversos erros de formatacao que uma simples revisao teria capturado</t>
-  </si>
-  <si>
-    <t>um dos livros faltam mais de 40 paginas ex pula da pag 140 pra pag 193 como foi um presente e a pessoa so viu quando estava lendo essa parte perdemos o prazo de devolucao</t>
-  </si>
-  <si>
-    <t>o livro apresenta ideias obvias como trate bem seus funcionarios trate as pessoas como deseja ser tratado etc isso e contado por meio de personagens estereotipo o ranzinza a certinha etc e tao chato e obvio que suas 140 paginas poderiam ser compiladas em 20 apresentandoas de forma detalhada li o livro em 3 semanas sendo que ja li livros de 500 paginas em 1 semana posso nao ter gostado do livro por ter sido obrigado a ler para um trabalho da escola mas essa e a minha opiniao sobre ele</t>
-  </si>
-  <si>
-    <t>nao percebi uma poesia de boa qualidade talvez seja por demais simplista praticamente como manifesto feminista contemporaneo vale como poesia carece de lirismo</t>
-  </si>
-  <si>
-    <t>ao longo do livro me senti extremamente mal ao ler as descricoes dos experimentos feitos com camundongos e macacos implantes cerebrais retirada de recompensa para estimular comportamento hostil eletrochoques um show de horrores tratado ao longo do livro como algo natural nao me agradou saber que existem por ai laboratorios implantando tomadas em cabeca de ratos para descobrirem seus habitos alem disso o autor e extremamente prolixo para cada caso usado para exemplificar seu ponto de vista ele discorre longamente sobre a historia de vida da personagem em estudo sao muitos detalhes irrelevantes ao proposito do livro li o livro como numa leitura dinamica pulando todas as partes de enrolacao sinceramente acho que um artigo em um blog na internet ja poderia conter toda a mensagem deste livro</t>
-  </si>
-  <si>
-    <t>quatro paginas coladas mal cortadas e sobre saindo o livro e com orelha flop justo o que queria mais ler triste</t>
-  </si>
-  <si>
-    <t>ganhei e foi o unico livro da minha vida que eu joguei fora pois achei um crime dar para alguem e este senhor e chamado de filosofo deve haver alguns idiotas que acreditam que ler isto os deixara menos idiotas</t>
-  </si>
-  <si>
-    <t>escrita fraca leitura tediosa metodos duvidosos nao perca seu tempo com esse livro bobo pode espremer que nao tem nada proveitoso</t>
-  </si>
-  <si>
-    <t>fuja desse lixo e um desperdicio de tempo inteligencia e dinheiro</t>
-  </si>
-  <si>
-    <t>nao sou de desistir de livro mas neste nao teve como o livro e muuuito ruim e cansativo tem uma passagem em que ele diz que na maioria dos livros so 20 do conteudo realmente importa so acho que o autor realmente tentou aplicar essa teoria no proprio livro porque meu deus e muita repeticao e chatice em quase 90 do livro mesmo detestei</t>
-  </si>
-  <si>
-    <t>comprei livro e recebi uma amostra digital que me fez cancelar a compra havera quem se identifique nao esta na lista dos mais vendidos a toa e bom saber do que se trata reflexoes de uma mulher sobre os proprios sentimentos nada que extrapole para uma experiencia mais universal ou mais profunda as ideias giram todas em volta da frustracao em nao acertar com um homem auto vitimizacao e a eterna preocupacao de que nao estao lhe prestando a devida atencao fingi gozar e voce nem percebeu etecetera a autora parece ter sido estuprada o tema do estupro volta sempre assim como o problema em se relacionar com o pai autocentrada e superficial e um livro que so deve interessar quem se identifique com a cabeca dessa moca como disse nao toca nenhuma corda que extrapole para o universal</t>
-  </si>
-  <si>
-    <t>chegou meu livro voces nao poderiam mas deveriam avisar que essa droga e edicao economica nao vou nem me dar ao trabalho de dar pra alguem vou jogar fora essa porcaria</t>
-  </si>
-  <si>
-    <t>se comparado os 7 livros do box as suas paginas nao sao do mesmo tamanho isso incomoda bastante pois eles nao encaixam corretamente na caixinha do box deixando a desejar na estetica</t>
-  </si>
-  <si>
-    <t>o livro e 10 infos uteis e 90 enchecao de linguica traz algumas perspectivas interessantes acerca de metodos de prouditividade mas e muita enrolacao e repeticao desnecessaria alem de o texto apresentar qualidade bastante questionavel</t>
-  </si>
-  <si>
-    <t>nada de interessante muito fraco a unica coisa que achei razoavel foi leia sem parar nao fique retornando a leitura pois assim sera mais compreender o texto lido um livro inteiro para dizer isto hora facame o favor</t>
-  </si>
-  <si>
-    <t>pessimo um tentativa de fazer dinheiro apenas traz informacoes mentirosas alem de nao conter fontes confiaveis isso nunca sera uma livro de historia no maximo de humor</t>
-  </si>
-  <si>
-    <t>a formatacao desse ebook atrapalha muito a leitura e nao vale a pena ter essa versao do kindle comprei agora um kindle e esse ebook e estou arrependido</t>
-  </si>
-  <si>
-    <t>a estoria e boa os personagens sao interessantes mas o autor estragou o enredo com situacoes absurdas e nauseantes com uma escrita demasiadamente longa enfadonha e muitas vezes desnecessaria fez um bom alicerce e a construcao em si ficou ridicula</t>
-  </si>
-  <si>
-    <t>infelizmente os livros nao chegaram fiz o pedido no comeco de dezembro com entrega prevista para 28122017 infelizmente nao chegou feito reclamacao foi estipulado novo prazo ate dia 08012018 novamente sem sucesso feito reclamacao na empresa planeta livros a mesma disse que o responsavel pela entrega era amazon que rebatia o contrario uma falta de respeito ao cliente tive que optar pelo reembolso e vou tentar comprar por outro site</t>
-  </si>
-  <si>
-    <t>a proposta do livro e legal a ideia num geral e legal mas nao e bem desenvolvido e se perde nas ideias apresentadas foge de sequencias de pensamento nao prende a atencao do leitor porque e tudo muito previsivel nao recomendo por mais que tenham pessoas dizendo que o livro e bom confiei nessas avaliacoes para comprar a minha copia mas nao gostei</t>
-  </si>
-  <si>
-    <t>nem consegui terminar juro que tentei achei os dialogos vazios sobretudo a forma como a doenca da menina era encarada talvez um publico mais adolescente possa curtir</t>
-  </si>
-  <si>
-    <t>o livro e escrito por um dos mais reacionarios jornalistas brasileiros com o objetivo claro de enaltecer todos os personagens historicos com posicionamento de direita e desmoralizar os personagens que possuem pensamento de esquerda o livro tem um otimo titulo e uma capa muito bem feita o que nos leva a ler porem a medida que foi prosseguindo a leitura comecei a perceber o seu forte conteudo ideologico desfacado e procurei pesquisar quem era o autor para entender o seu objetivo o livro nao e baseado em fontes confiaveis e apenas pinca fatos nao comprovados para confirmar teses muito questionaveis nao percam o seu tempo com este lixo</t>
-  </si>
-  <si>
-    <t>a historia dispensa comentarios e um dos maiores classicos da literatura contemporanea encantando a jovens e adultos mas essa versao para o kindle e uma vergonha possui erros de traducao e ate de divisao de palavras alias centenas deles lamentavel cara amazon</t>
-  </si>
-  <si>
-    <t>o que os autores ao final concluem e que enfim um despertar conservador comeca a tomar para si as redeas do mundo na tentativa de poder livralo do caminho do abismo decadas e decadas de governos autoritarios eou ditatoriais destruiram as liberdades as economias e a autoestima de suas populacoes crises nos paises arabes africanos latinoamericanos ocorrem desde sempre e esses mesmos governos com vies de esquerda estavam no poder so fizeram aumentar a pobreza a fome e a miseria locupletaramse ate nao poderem mais emitiram moeda quando esta acabava compraram as midias pelo mundo todo criaram e fortaleceram compadrios nas concessoes publicas em rodovias portos aeroportos e ate na area de energia como petroleo e energia eletrica e ao povomigalhas meus irmaos recalque e para recalcadas ja era hora de acordarmos desse transe gente como esses autores que se intitulam pesquisares ou professores de harvard leiase berco progressista nos eua sao frequentemente convidados a emprestar suas credenciais e suposta autoridade a pautas como essa que nao passa de mais um vexame esquerdista que teimam em nao aceitarem que perderam as eleicoesouviraoperderam as eleicoesss aceitem que doi menos uniao europeia tambem ruira se deus quiser e ele quer ainda em 2019 cansamos de carregar voces nas costas vao trabalhar um pouco ou como se diz la na minha terravao capinar um lote chega de hipocrisia</t>
-  </si>
-  <si>
-    <t>achei um livro muito superficial e enfadonho o autor fica dando giros em volta de conceitos explicados muito por cima e a suposta receita nunca vem livros como a forca do habito sao muito mais consistentes</t>
-  </si>
-  <si>
-    <t>se a silvia day tivesse parado no terceiro livro seria melhor esticar em 5 livros foi o maior erro fiquei decepcionada com o enredo final</t>
-  </si>
-  <si>
-    <t>e um otimo livro para quem e e deseja ser um analfabeto politico e tambem perfeito para pessoas cheias de achismos como aquelas que chamam liberais de fascistas pessimo</t>
-  </si>
-  <si>
-    <t>livro bem ruim a abordagem do autor ate tenta ser descontraida para atingir certo publico mas sinceramente peca na precariedade do texto ah sim a traducao ta bacaninha ate</t>
-  </si>
-  <si>
-    <t>eu estava querendo reler esse livro mas ao me deparar com o preco e brincadeira amazon mais de r 10000 num ebook a obra vale mil estrelas mas eu dou uma estrela para a amazon em virtude do preco abusivo</t>
-  </si>
-  <si>
-    <t>a caixa veio rasgada como fazia mais de sete dias que havia comprado e nao havia aberto fiquei no prejuizo triste</t>
-  </si>
-  <si>
-    <t>nao comprem pela amazomcombr ele enviaram um livro pela transportadora e nao pelos correios primeiro a transportadora diz que nao encontrou ninguem em minha casa e depoisna terceira disse que nao localizou o endereco ora como nao tinha ninguem casa se nao encontraram minha casa so para deixar claro nos dias e horarios que alegados tinha gente em minha casa sim agora a amazon quer me reembolsar e nao entregar o livro sendo que ele esta bem mais caro agora e ai o que faco pago mais caro em outro lugar que vergonha</t>
-  </si>
-  <si>
-    <t>tive que devolver a colecao pois o livro ordem de fenix veio faltando 30 paginas da pagina 353 a 384</t>
-  </si>
-  <si>
-    <t>veio com um problema na imagem da capa e vendo as outras criticas isso parece ocorrer com frequencia nao o recomendo para ninguem</t>
-  </si>
-  <si>
-    <t>gostei muito do livro prende a nossa atencao desde o inicio ate ao final trabalho de pesquisa fantastico recomendo e avalio com 5 cinco estrelas parabens</t>
-  </si>
-  <si>
-    <t>voltado especificamente aos usa um tanto repetitivo para nos brasileiros</t>
-  </si>
-  <si>
-    <t>eu tambem cheguei a entrar na pagina para comprar o livro em questao porem com avaliacoes como estas desisti da compra acho um absurdo uma empresa como a amazon estar envolvida com pirataria ou mesmo comercializando um material incorreto fraudulento e por sua vez desrespeitando o consumidor absurdo</t>
-  </si>
-  <si>
-    <t>o autor e fraquissimo e escreve de maneira muito apelativa em uma va tentativa de robustecer suas falacias</t>
-  </si>
-  <si>
-    <t>nao serve nem para fazer uma boa fogueira porque o papel e ruim</t>
-  </si>
-  <si>
-    <t>livro bastante repetitivo onde o autor se promove o tempo todo nao acrescenta muito acredito que e possivel aprender o conteudo do livro atraves do site do autor em menos de 1 hora evitando o desperdicio de tempo na leitura do livro nao vale o preco</t>
-  </si>
-  <si>
-    <t>eu esperava mais do livro que final chato gente cade os filhos do casal decepciona com a autora muito chato</t>
-  </si>
-  <si>
-    <t>eu esperava mais do livro esperava que fosse mais ligado ao titulo alguma ideias apresentada no livro sao iguais a outras ja mostrada em outros livros dele</t>
-  </si>
-  <si>
-    <t>estou aguardando posicao para resolver o meu problema o livro e para uma crianca que esta doente no hospital e fez aniversario nest eultimo domingo</t>
-  </si>
-  <si>
-    <t>totalmente insatisfeita com a entrega amazon terceira vez que tenho atraso nas estrelas de livros e as cronicas que era pra ter recebido dia 1112 nao foram entregues</t>
-  </si>
-  <si>
-    <t>queria entender o porque nao chegou ainda esse livro em minha casa fui ate o correio daqui pra ver a estava la mas eles disseram que a entrega de voces nao usam o correio da minha cidade e algo proprio de voces comprei esse livro a tempos mas nada dele chegar obrigada</t>
-  </si>
-  <si>
-    <t>a entrega foi super rapida mas o produto veio rasgado e todo surrado a caixa box que guarda os livros veio toda destruida e pelo que leio nos comentarios isso anda acontecendo bastante</t>
-  </si>
-  <si>
-    <t>me sentir enganado ao ler o livro paguei para ler propaganda de um metodo que esta a venda recomendo que retirem o livro do site e uma vergonha ter um livro desse a disposicao para venda</t>
-  </si>
-  <si>
-    <t>o box e maravilhoso e chegou antes do previsto mas veio amassado e com varias partes rasgadas a maior delas na parte de baixo como na imagem muito triste gostaria de poder trocar</t>
-  </si>
-  <si>
-    <t>o livro e uma vergonha o autor deturpa pesquisas academicas serias para justificar preconceitos e falsas interpretacoes um horror metodologico e irresponsavel ignora a historicidade de conceitos e falsifica fontes um delinquente intelectual que vem ajudando a formar uma geracao de fascistas nas redes sociais e nas ruas</t>
-  </si>
-  <si>
-    <t>o livro e apenas uma motivacao muito superficial quem quer melhorar a velocidade de leitura vai precisar escolher outro livro esse nao servira</t>
-  </si>
-  <si>
-    <t>o pedido veio rapido os livros sao maravilhosos porem o box veio em pessimas condicoes parece que caiu agua nele e estufou todo o material como mostram as imagens as pontas estao destruidas com certeza caiu no chao em algum momento estou frustrada com a minha primeira aquisicao na amazon</t>
-  </si>
-  <si>
-    <t>tao emocionante quanto o primeiro volume dando continuidade aos acontecimentos mundiais atraves das familias que ja conhecemos com os mais jovens agora adultos</t>
-  </si>
-  <si>
-    <t>nao consegui passar da metade e bem sem graca da a impressao que a autora quis embarcar no sucesso do livro anterior que virou filme para criar uma continuacao da estoria o que ficou monotono e desajeitado acho dificil entender como esta na lista dos mais vendidos o livro e repleto de dialogos cansativos em linguagem basica bem bobinha enfim nao convence</t>
-  </si>
-  <si>
-    <t>o valor do ebook esta vergonhoso quero muito mas assim nao tem como comprar enquanto nao baixar consideravelmente nao compro</t>
-  </si>
-  <si>
-    <t>voces estao brincando certo quando fui fazer o download apareceu que nao estava disponivel para a minha regiaopais so que nao havia nenhuma regiao selecionada quando selecionei brasil apareceu que eu ja tinha usufruido da oferta nao fiz download nenhum e tenho que dizer o que achei do livro</t>
-  </si>
-  <si>
-    <t>frustracao resumea serie deveria ter acabado no quarto livro o quinto foi pra encher linguica dando voltas em assuntos bobosodiei so o lindo do gidion pra salvar a chatisse da evaa autora continua com sua escrita inteligente porem deixou muito a desejar</t>
+    <t>acho absurdo preco amazon coloca titulo estabelecimentos possivel comprar caixa promocional 5 livros fisicos vem mais brinde r12000 comprar aqui gastaria quase r14000 midia digital absurdo amazon rever precos beiram ridiculo</t>
+  </si>
+  <si>
+    <t>obra pessima entendo tao falada consegui chegar fim tratase historia mulher deprimida errado alcoolica ponto suportei ler acontece nada ser recordacoes desgraca vida sentido amor deu certo interesse prende leitor</t>
+  </si>
+  <si>
+    <t>chato trechos personagem principal extremamente repetitivos acredito livro adolescentes vao identificar personagens</t>
+  </si>
+  <si>
+    <t>decepcionante livro contradiz totalmente partir prefacio utiliza frase tente marco propaga justamente contrario paginas seguem texto blog seria mais instrutivo</t>
+  </si>
+  <si>
+    <t>odiei historia contava trocas emails cartas primeira achei filme mais legal</t>
+  </si>
+  <si>
+    <t>versao combo ebook cronicas gelo fogo possui inumero erros portugues ortografia concordancias nominal verbal alem diversas palavras grudadas entrei contato sac editora leya vao corrigir fazem faz mais mes nada respondem mais emails</t>
+  </si>
+  <si>
+    <t>recebi produto amassado paginas dobradas marcadas valeu pena pessima qualidade servico</t>
+  </si>
+  <si>
+    <t>responsabilidade amazon promocao produto ruim pessima edicao livro inves desistir vendela quero dar desconto versoes melhores</t>
+  </si>
+  <si>
+    <t>dias atras adquiri produto amazon box sherlock holmes editora harper collins fiquei feliz tamanha acessibilidade preco mais baratos comparado lojas entretanto hoje receber box deparei caixa bastante estreita surpreendendome quer espuma plastico bolha afinal livros materiais bastante sensiveis retirada caixa amassada vi box amassado quase bordaso pareceu pancadas fortes arranhoes riscos certo transportadora encarregada boa parte culpa custa colocar embalagem maior mais aconchegante produto creio irei dar entrada processo troca burocracia demora avaliar reentregar produto valeriam pena unica felicidade livros apesar capa amassada comprometidos parte mais importante leitura produto perdeu requinte mais chama atencao consumidor hora compra primeira comprei amazon acho visto custo acessivel vale apena vista descuido entrega</t>
+  </si>
+  <si>
+    <t>ruim serie repeticoes desnecessariasum insulto leitor acompanhou historia verdadeiro horror comprem dinheiro jogado fora</t>
+  </si>
+  <si>
+    <t>livro bom confundi bastante palavras estranhas presentes livro atrapalharam compreensao conteudo</t>
+  </si>
+  <si>
+    <t>parentes vivos mais proximos incluem chimpanzes gorilas orangotangos chimpanzes mais proximos apenas 6 milhoes anos femea primata teve duas filhas tornou ancestral chimpanzes avo hoje encontrada prova evolucao prova anfibio tornou reptil chimpanze tornou humano somente especulacoes baseadas ideias mais fe cer historia crer deus criou universo nele mais livro moda ateismo</t>
+  </si>
+  <si>
+    <t>tenho livros segunda guerra mundial sou interessado historia guerras livro decepcionou parcial tenta mostrar nazismo imperio mal barbaridades cometidas stalin nenhuma palavra fala dizer culpa hitler transforma polonia coitadinha explica polonia tratado versailhes tomou territorio alemao continuou guerra reivindicando mais territorios alemanha cita franca exigia reparacoes guerra alemanha pagar fala estados unidos enviaram dinheiro alemanha pagar reparacoes woodrow wilson presidente americano achava excessivasisso perdurou 1929 houve queda bolsa valores quadro esquecem dizer hitler eleito chanceler alemanha maioria absoluta votos pior livro esclarece direito polonia dividida hitler stalin hitler interessava recuperar territorios roubados alemanha digo livro pior livro segunda guerra li bem li quis passar nervoso indignacao recomendo</t>
+  </si>
+  <si>
+    <t>obra arthur conan doyale simplesmente excepcional edicao impecavel recebi encomenda prazo previsto caixa box onde livros vem lateral totalmente amacada descuido evitado melhor embalagem compro livros amazon fiquei decepcionada</t>
+  </si>
+  <si>
+    <t>tao ruim consegui terminar ler preferi parar ficar boa recordacao livro anterior estragar historia arrastada</t>
+  </si>
+  <si>
+    <t>podem explicar preco pra versao digital quase preco versao fisica mais cara versao pocket jutificativa pra tal abuso transporte papinho manutencao software pq vc paga ano copia impresso wtf</t>
+  </si>
+  <si>
+    <t>livro autoajuda ser vendido tal gostei alem ser repetitivo</t>
+  </si>
+  <si>
+    <t>parei ler historia graca</t>
+  </si>
+  <si>
+    <t>confesso quase desisti ler biografia rita lee cheguei 35 cansei iniciou super bem divertido passou ser arrastado citar detalhes panorama musical comecou anterior conhecimento musical 1947 deixava perdida explanacoes segui pulando partes descritivas shows duvidas rita lee teve vida tumultuada cheia eventos incomuns livro relato bem humorado viveu entanto leitura fas carteirinha ritmo busca livro gostoso</t>
+  </si>
+  <si>
+    <t>bacana livro liberdade rita escrever vontade espere tratados musicais nada tipo mais vida meio importando opinioes espera algo relativo mutantes vai decepcionar amargurada esconde achei superficial</t>
+  </si>
+  <si>
+    <t>apesar autor dominar homem impactou mais 20 milhoes pessoas livro superficial obras paulo vieira compilacao teorias psicologicas sociologicas diluidas estrategias marketing fortissimas leigos ser livro interessante estudiosos profissionais livro raso comercial parece querer promover metodo cis</t>
+  </si>
+  <si>
+    <t>entrei endereco ganho livro kindle dia 303 escolho livro imediatamente login valor eh debitado cartao absurdo queria comprar livro solicito devolucao imediata valor</t>
+  </si>
+  <si>
+    <t>espero compre pagar preco livro papel livro virtual inaceitavel dira mais caro decepcionado desmotivado adquirir aparelho kindle</t>
+  </si>
+  <si>
+    <t>box veio lateral descolando apresentando bolhas ar conta descolamento fora box lindo</t>
+  </si>
+  <si>
+    <t>cheio teorias conspiracao</t>
+  </si>
+  <si>
+    <t>fiz compra errada pra comprar livro acabei comprando kindle quero cancelar compra kindle segredo mente milionaria obrigada karla</t>
+  </si>
+  <si>
+    <t>esperava mais forma vale cultura pop tantos ensinamentos importantes tao popular obrigada nada</t>
+  </si>
+  <si>
+    <t>resolvi problema amazon sou grata tenho comentalo havia lido comentario aqui pessoa recebeu livro paginas trocadas tive problema pagina 224 livro pula 257 chagando 288 repetemse paginas desde 257 poxa livro serve nada alem fato papel polen miolo livro baixa qualidade parecendo papel jornal aconteceu segundo livro serie inclusive paginas bem apagadas meio demais livros serie comprei papel melhor qualidade disparados papel capa fininho diagramacao letras bem espacamento linhas apertado faz versao comemorativa nada mais versao economica</t>
+  </si>
+  <si>
+    <t>comprei versao ebook kindle arrependi profundamente claramente passaram tempo polindo existem diversos erros formatacao simples revisao teria capturado</t>
+  </si>
+  <si>
+    <t>livros faltam mais 40 paginas ex pula pag 140 pra pag 193 presente pessoa viu lendo parte perdemos prazo devolucao</t>
+  </si>
+  <si>
+    <t>livro apresenta ideias obvias trate bem funcionarios trate pessoas deseja ser tratado etc contado meio personagens estereotipo ranzinza certinha etc tao chato obvio 140 paginas ser compiladas 20 apresentandoas forma detalhada li livro 3 semanas li livros 500 paginas 1 semana gostado livro obrigado ler trabalho escola opiniao</t>
+  </si>
+  <si>
+    <t>percebi poesia boa qualidade demais simplista praticamente manifesto feminista contemporaneo vale poesia carece lirismo</t>
+  </si>
+  <si>
+    <t>longo livro senti extremamente mal ler descricoes experimentos camundongos macacos implantes cerebrais retirada recompensa estimular comportamento hostil eletrochoques show horrores tratado longo livro algo natural agradou saber existem ai laboratorios implantando tomadas cabeca ratos descobrirem habitos alem autor extremamente prolixo caso usado exemplificar ponto vista discorre longamente historia vida personagem estudo detalhes irrelevantes proposito livro li livro leitura dinamica pulando partes enrolacao sinceramente acho artigo blog internet conter mensagem livro</t>
+  </si>
+  <si>
+    <t>quatro paginas coladas mal cortadas saindo livro orelha flop justo queria mais ler triste</t>
+  </si>
+  <si>
+    <t>ganhei unico livro vida joguei fora achei crime dar senhor chamado filosofo haver idiotas acreditam ler deixara menos idiotas</t>
+  </si>
+  <si>
+    <t>escrita fraca leitura tediosa metodos duvidosos perca tempo livro bobo espremer nada proveitoso</t>
+  </si>
+  <si>
+    <t>fuja lixo desperdicio tempo inteligencia dinheiro</t>
+  </si>
+  <si>
+    <t>sou desistir livro neste teve livro muuuito ruim cansativo passagem maioria livros 20 conteudo realmente importa acho autor realmente tentou aplicar teoria livro deus repeticao chatice quase 90 livro detestei</t>
+  </si>
+  <si>
+    <t>comprei livro recebi amostra digital fez cancelar compra havera identifique lista mais vendidos toa bom saber trata reflexoes mulher sentimentos nada extrapole experiencia mais universal mais profunda ideias giram volta frustracao acertar homem auto vitimizacao eterna preocupacao prestando devida atencao fingi gozar voce percebeu etecetera autora parece estuprada tema estupro volta assim problema relacionar pai autocentrada superficial livro interessar identifique cabeca moca toca nenhuma corda extrapole universal</t>
+  </si>
+  <si>
+    <t>chegou livro voces avisar droga edicao economica vou dar trabalho dar pra vou jogar fora porcaria</t>
+  </si>
+  <si>
+    <t>comparado 7 livros box paginas tamanho incomoda bastante encaixam corretamente caixinha box deixando desejar estetica</t>
+  </si>
+  <si>
+    <t>livro 10 infos uteis 90 enchecao linguica traz perspectivas interessantes acerca metodos prouditividade enrolacao repeticao desnecessaria alem texto apresentar qualidade bastante questionavel</t>
+  </si>
+  <si>
+    <t>nada interessante fraco unica achei razoavel leia parar fique retornando leitura assim mais compreender texto lido livro inteiro dizer hora facame favor</t>
+  </si>
+  <si>
+    <t>pessimo tentativa dinheiro apenas traz informacoes mentirosas alem conter fontes confiaveis livro historia maximo humor</t>
+  </si>
+  <si>
+    <t>formatacao ebook atrapalha leitura vale pena versao kindle comprei kindle ebook arrependido</t>
+  </si>
+  <si>
+    <t>estoria boa personagens interessantes autor estragou enredo situacoes absurdas nauseantes escrita demasiadamente longa enfadonha vezes desnecessaria fez bom alicerce construcao ficou ridicula</t>
+  </si>
+  <si>
+    <t>infelizmente livros chegaram fiz pedido comeco dezembro entrega prevista 28122017 infelizmente chegou reclamacao estipulado novo prazo dia 08012018 novamente sucesso reclamacao empresa planeta livros responsavel entrega amazon rebatia contrario falta respeito cliente tive optar reembolso vou tentar comprar site</t>
+  </si>
+  <si>
+    <t>proposta livro legal ideia geral legal bem desenvolvido perde ideias apresentadas foge sequencias pensamento prende atencao leitor previsivel recomendo mais tenham pessoas dizendo livro bom confiei avaliacoes comprar copia gostei</t>
+  </si>
+  <si>
+    <t>consegui terminar juro tentei achei dialogos vazios sobretudo forma doenca menina encarada publico mais adolescente possa curtir</t>
+  </si>
+  <si>
+    <t>livro escrito mais reacionarios jornalistas brasileiros objetivo claro enaltecer personagens historicos posicionamento direita desmoralizar personagens possuem pensamento esquerda livro otimo titulo capa bem leva ler medida prosseguindo leitura comecei perceber forte conteudo ideologico desfacado procurei pesquisar autor entender objetivo livro baseado fontes confiaveis apenas pinca fatos comprovados confirmar teses questionaveis percam tempo lixo</t>
+  </si>
+  <si>
+    <t>historia dispensa comentarios maiores classicos literatura contemporanea encantando jovens adultos versao kindle vergonha possui erros traducao divisao palavras alias centenas lamentavel cara amazon</t>
+  </si>
+  <si>
+    <t>autores final concluem enfim despertar conservador comeca tomar redeas mundo tentativa livralo caminho abismo decadas decadas governos autoritarios eou ditatoriais destruiram liberdades economias autoestima populacoes crises paises arabes africanos latinoamericanos ocorrem desde governos vies esquerda fizeram aumentar pobreza fome miseria locupletaramse poderem mais emitiram moeda acabava compraram midias mundo criaram fortaleceram compadrios concessoes publicas rodovias portos aeroportos area energia petroleo energia eletrica povomigalhas irmaos recalque recalcadas hora acordarmos transe gente autores intitulam pesquisares professores harvard leiase berco progressista eua frequentemente convidados emprestar credenciais suposta autoridade pautas passa mais vexame esquerdista teimam aceitarem perderam eleicoesouviraoperderam eleicoesss aceitem doi menos uniao europeia ruira deus quiser quer 2019 cansamos carregar voces costas vao trabalhar terravao capinar lote chega hipocrisia</t>
+  </si>
+  <si>
+    <t>achei livro superficial enfadonho autor fica dando giros volta conceitos explicados cima suposta receita vem livros forca habito mais consistentes</t>
+  </si>
+  <si>
+    <t>silvia day tivesse parado terceiro livro seria melhor esticar 5 livros maior erro fiquei decepcionada enredo final</t>
+  </si>
+  <si>
+    <t>otimo livro deseja ser analfabeto politico perfeito pessoas cheias achismos chamam liberais fascistas pessimo</t>
+  </si>
+  <si>
+    <t>livro bem ruim abordagem autor tenta ser descontraida atingir certo publico sinceramente peca precariedade texto ah sim traducao ta bacaninha</t>
+  </si>
+  <si>
+    <t>querendo reler livro deparar preco brincadeira amazon mais r 10000 ebook obra vale mil estrelas dou estrela amazon virtude preco abusivo</t>
+  </si>
+  <si>
+    <t>caixa veio rasgada fazia mais sete dias havia comprado havia aberto fiquei prejuizo triste</t>
+  </si>
+  <si>
+    <t>comprem amazomcombr enviaram livro transportadora correios transportadora encontrou casa depoisna terceira localizou endereco ora casa encontraram casa deixar claro dias horarios alegados gente casa sim amazon quer reembolsar entregar livro bem mais caro ai faco pago mais caro lugar vergonha</t>
+  </si>
+  <si>
+    <t>tive devolver colecao livro ordem fenix veio faltando 30 paginas pagina 353 384</t>
+  </si>
+  <si>
+    <t>veio problema imagem capa criticas parece ocorrer frequencia recomendo</t>
+  </si>
+  <si>
+    <t>gostei livro prende atencao desde inicio final trabalho pesquisa fantastico recomendo avalio 5 cinco estrelas parabens</t>
+  </si>
+  <si>
+    <t>voltado especificamente usa tanto repetitivo brasileiros</t>
+  </si>
+  <si>
+    <t>cheguei entrar pagina comprar livro questao avaliacoes desisti compra acho absurdo empresa amazon estar envolvida pirataria comercializando material incorreto fraudulento desrespeitando consumidor absurdo</t>
+  </si>
+  <si>
+    <t>autor fraquissimo escreve maneira apelativa va tentativa robustecer falacias</t>
+  </si>
+  <si>
+    <t>serve boa fogueira papel ruim</t>
+  </si>
+  <si>
+    <t>livro bastante repetitivo onde autor promove tempo acrescenta acredito possivel aprender conteudo livro site autor menos 1 hora evitando desperdicio tempo leitura livro vale preco</t>
+  </si>
+  <si>
+    <t>esperava mais livro final chato gente cade filhos casal decepciona autora chato</t>
+  </si>
+  <si>
+    <t>esperava mais livro esperava mais ligado titulo ideias apresentada livro iguais mostrada livros</t>
+  </si>
+  <si>
+    <t>aguardando posicao resolver problema livro crianca doente hospital fez aniversario nest eultimo domingo</t>
+  </si>
+  <si>
+    <t>totalmente insatisfeita entrega amazon terceira tenho atraso estrelas livros cronicas pra recebido dia 1112 entregues</t>
+  </si>
+  <si>
+    <t>queria entender chegou livro casa fui correio daqui pra disseram entrega voces usam correio cidade algo voces comprei livro tempos nada chegar obrigada</t>
+  </si>
+  <si>
+    <t>entrega super rapida produto veio rasgado surrado caixa box guarda livros veio destruida leio comentarios anda acontecendo bastante</t>
+  </si>
+  <si>
+    <t>sentir enganado ler livro paguei ler propaganda metodo venda recomendo retirem livro site vergonha livro disposicao venda</t>
+  </si>
+  <si>
+    <t>box maravilhoso chegou previsto veio amassado varias partes rasgadas maior parte baixo imagem triste gostaria trocar</t>
+  </si>
+  <si>
+    <t>livro vergonha autor deturpa pesquisas academicas serias justificar preconceitos falsas interpretacoes horror metodologico irresponsavel ignora historicidade conceitos falsifica fontes delinquente intelectual vem ajudando formar geracao fascistas redes sociais ruas</t>
+  </si>
+  <si>
+    <t>livro apenas motivacao superficial quer melhorar velocidade leitura vai precisar escolher livro servira</t>
+  </si>
+  <si>
+    <t>pedido veio rapido livros maravilhosos box veio pessimas condicoes parece caiu agua nele estufou material mostram imagens pontas destruidas certeza caiu chao momento frustrada primeira aquisicao amazon</t>
+  </si>
+  <si>
+    <t>tao emocionante volume dando continuidade acontecimentos mundiais familias conhecemos mais jovens adultos</t>
+  </si>
+  <si>
+    <t>consegui passar metade bem graca impressao autora quis embarcar sucesso livro anterior virou filme criar continuacao estoria ficou monotono desajeitado acho dificil entender lista mais vendidos livro repleto dialogos cansativos linguagem basica bem bobinha enfim convence</t>
+  </si>
+  <si>
+    <t>valor ebook vergonhoso quero assim comprar baixar consideravelmente compro</t>
+  </si>
+  <si>
+    <t>voces brincando certo fui download apareceu disponivel regiaopais havia nenhuma regiao selecionada selecionei brasil apareceu usufruido oferta fiz download tenho dizer achei livro</t>
+  </si>
+  <si>
+    <t>frustracao resumea serie acabado quarto livro quinto pra encher linguica dando voltas assuntos bobosodiei lindo gidion pra salvar chatisse evaa autora continua escrita inteligente deixou desejar</t>
   </si>
   <si>
     <t>livro obvio demais</t>
   </si>
   <si>
-    <t>mantive ele por um tempo na caixa ainda embalado e em local adequado e mesmo assim ao ler os livros todos estao soltando a brochura das capas pessima qualidade de acabamento e por uma questao de prazos nao tenho como reclamar</t>
-  </si>
-  <si>
-    <t>o livro tem muitas coisas boas sobre o assunto em questao bem praticos ate e verdade que ha um pouco de autopromocao quando o autor fala do seu metodo cis que criou mas acho ate que isso combina com o livro porem o autor que parece ser uma excelente pessoa muitas vezes se comporta como um pastor tudo bem cada um com sua crenca respeito isso mas nao recomendo a leitura para agnosticos ceticos ou ateus o autor menciona ou a deus ou a passagens biblicas 45 vezes sim eu contei esse detalhe incomoda bastante alem de interromper a linha de pensamento do leitor lerei o livro em partes de novo pois grifei apenas aquilo que tem aplicacao na minha realidade no mundo material</t>
-  </si>
-  <si>
-    <t>dei uma estrela por que nao havia a opcao de nao dar nenhuma o livro e simplesmente incompreensivel para um leigo e tampouco serve como literatura cientifica para especialistas como o hawking e internacionalmente conhecido como muitissimo inteligente acho que muita gente se acanha em confessar que nao entendeu a maior parte das teorias que ele expoe muitas delas sem nenhuma comprovacao</t>
-  </si>
-  <si>
-    <t>como ja foi enfatizado pelos outros comentarios a autora conta esse romance por meio de trocas de correspondencias eu li o livro acreditando com base no trailer do filme que a historia seria muito diferente do que de fato e exposto na obra eu achei a historia de vida dos personagens principais no aspecto afetivo realmente deprimente comprei esse livro acreditando que se tratava de uma bela obra mas na realidade acabei lendo a historia mais triste e frustrante de todos os romances que eu ja li esse livro alem de apresentar uma narrativa mal construida onde os personagens apesar de adultos tomam decisoes com justificativas tao pateticas que chegam a lembrar a mentalidade de uma crianca de 10 anos ainda apresenta tantos encontros e desencontros que tornam cansativa a expectativa pela concretizacao do romance entre alex e rose os fanboys da cecelia ahern que me perdoem mas eu nao recomendo essa obra pra ninguem esse e o primeiro e ultimo livro que leio dessa autora nunca mais</t>
-  </si>
-  <si>
-    <t>amei como toas obras da lanni escrita perfeita enredos perfeitos enfim amei parabens tudo de bom continue nos encantado com sua criatividade</t>
-  </si>
-  <si>
-    <t>os precos dos ebooks no brasil sao abusivos e absurdos o mesmo livro em ingles custa a metade do preco httpwwwamazoncombrgamethronessongfireebookdpb000qcs8twrefpdsimsbskinc6</t>
-  </si>
-  <si>
-    <t>esperava muito mais deste livro achei cansativa e repetitiva o enredo o misterio consegui decifrar logo de comeco eu msm n recomendaria</t>
-  </si>
-  <si>
-    <t>o titulo nao veio centralizado no dorso nao gostei</t>
-  </si>
-  <si>
-    <t>isto nao e poesia muito menos poema ha zero paginas de poemas nesse livro existem 208 paginas de trechos do que parece ser o diario de uma menina de 13 anos com quebras de linha aleatoria rabiscos legais e capitulos ocasionais com titulos tematicos para que voce saiba quais emocoes a autora esta tentando extrair de voce e vergonhosamente derivativo e nao emprega quase nenhum aparato poetico os fragmentos de sentenca sao usados porque e o que se espera de um poema mas a autora nao parece entender que eles servem a um proposito e devem contribuir para o significado maior do poema as alusoes e metaforas sao deslocadas e incongruentes porem estao sendo apresentadas ao leitor como arte nao ha nada de novo interessante criativo ou poetico nesse livro e tudo muito cliche e nao no sentido positivo da palavra nao sei por que as pessoas enlouqueceram com esse livro e dizem que e lindo e e o seu livro favorito porque honestamente e bastante claro a maior parte dele e apenas periodos basicos com quebras de linha aleatorias e que ficariam muito melhor se fossem linha corrida nao sao muito liricos e literalmente sao como ler uma frase normal eu esperava adorar todas as paginas mas eu so marquei 7 para as pessoas que nunca leram poesia e nem poema fora da escola esse parece ser um otimo livro os conceitos especialmente quando se aproximaram dos aspectos feministas simplesmente nao me impressionaram um texto inteiro sobre voce nao precisa de um homem foi apenas uma repeticao das coisas que eu tenho ouvido ha anos foi uma leitura rapida mas frustrante o que me deixa triste porque e uma critica tao ma para uma autora que tenta colocar bastante emocao em seu trabalho resumindo em duas palavras superestimado e superficial</t>
-  </si>
-  <si>
-    <t>chato parado uma grande decepcao comecei a ler varias vezes nao conseguiu me prender em nenhum momento so no final e que li de uma tacada so pra ver se me surpreendia</t>
-  </si>
-  <si>
-    <t>achei de muito mal gosto mentiroso me arrependi de ter adquirido sem pe nem cabeca nota zero sem conteudo edificante</t>
-  </si>
-  <si>
-    <t>alguns livros vieram com cola na capa alem de nao informar que esta e a versao compactadapocket a unica descricao e a imagem ilustrativa</t>
-  </si>
-  <si>
-    <t>recomendaria esse livro para que vejam como nao se deve ser um livro que trata da historia podese ate entender que o autor estava buscando uma nova interpretacao dos fatos e talvez ser referencia na historia do brasil contudo as interpretacoes dos fatos sao superficiais sem profundidade e sem criterio de pesquisa historica afirmar que se nao houvesse a colonizacao provavelmente teriamos mais florestas devastadas devido a pratica agricola das sociedades americanas nativas e como se enxergasse minimamente as consequencias da historia no periodo atual tambem se ocorre na analise da escravidao mostra que e alguem que esta alheio ao que ocorre na sociedade alem do mais nao se pode esperar um trabalho serio de alguem que tenta reinventar a historia do brasil da america latina e agorado mundo nao se pode esperar muito por isso deve ser uma leitura cautelosa para nao recair no simplismo da interpretacao dos fatos historicos</t>
-  </si>
-  <si>
-    <t>o livro e uma mera propagando de leitura dinamica nao possue conteudo que realmente nos ajude a se tornar um leitor dinamico o que se espera apos ler o subtitulo o sentimento que fica apos terminar este livro e de que fui enganado</t>
-  </si>
-  <si>
-    <t>o livro nao possui nenhum exercicio ou metodo que realmente auxilie na leitura dinamica o valor e baixo mas nao vale nem esse tanto</t>
-  </si>
-  <si>
-    <t>nao gostei do livro achei cansativo cheio de palavras dificeis parece que a estoria nao desenrola nao consegui nem terminar de ler</t>
-  </si>
-  <si>
-    <t>horrivel nao dei conta de ler tudo nao consigo entender como uma mulher aceita esse tipo de situacao e ter tantas fas seria por conta do jatinho carros e todos os outros bens materiais</t>
-  </si>
-  <si>
-    <t>o titulo deveria ser outro como as democracias sao assassinadas e os autores mais qualificados sao do governo russo sede da difusao do comunismo desde 1917 tratase de obra contra donald trump que esta fazendo o contrario salvando a democracia liberal libertarian nos eua mas comunistas costuman costumam ser o que eles xingam aos democratas de ser e costuma fazer o que eles acusam aos democratas de fazer</t>
-  </si>
-  <si>
-    <t>sou fa do canal estava na primeira sessao da peca deixa eu te contar e esperava muito mais desse livro historias de 6 anos de idade sem pe nem cabeca nada interessantes no final da pra perceber o enchimento de linguica fora a gramatura das paginas e as fotos que tomavam duas paginas inteira continuo sendo fa da keh mas o livro nao e bom</t>
-  </si>
-  <si>
-    <t>esperava mais do livro achei que o livro tinha tudo para engrenar numa historia de aventura e amor mais emocionante dei 2 estrelas porque em alguns pontos o livro nos faz refletir e tentar entender um pouco sobre as pessoas que tem toc como elas pensam o que elas passam porem a historia se perdeu e nao gostei do desenrolar</t>
-  </si>
-  <si>
-    <t>o livro e excelente porem chegou todo amassado as minhas maos visto que nao fiquei satisfeita devido a ser um produto com preco relativamente caro embora tenha valido a pena gostaria de saber a possibilidade de substituicao do mesmo nunca tive problemas com as entregas de voces estou bem decepcionada grata carla bruzetti</t>
-  </si>
-  <si>
-    <t>pelo resumo da para ver que e mais um filhinho de papai com complexo de vira lata querendo faturar mais uns trocadinhos</t>
-  </si>
-  <si>
-    <t>o conteudo e interessante mas esta parecendo que a traducao foi feita com muito descuido alem de a linguagem ser quase infantil tem erros na formacao e descontinuidade nas frases parece mal revisado</t>
-  </si>
-  <si>
-    <t>nao sei nem por onde comecar li o original em ingles ou seja com certeza a culpa nao foi da traducao e fiz muito esforco pra terminar o livro quis ler ate o final porque nao acreditava que um livro tao vendido e elogiado pudesse ser tao ruim as primeiras 50 paginas sao extremamente macantes depois disso as coisas nao melhoram muito a protagonista poderia facilmente entrar para a lista dos personagens mais irritantes da historia da literatura ainda que as outras personagens femininas nao sejam tao chatas sao igualmente superficiais instaveis e obsessivas os homens nao sao melhores com personagens tao caricatos e um estilo tao pobre algumas divagacoes de megan sao especialmente forcadas talvez algo se salvasse com uma trama interessante o que nao acontece ha suspense no livro sim apesar de a identidade do assassino nao ter sido grande surpresa mas o resto e tao ruim que nao compensou a minha compra e muito menos o meu tempo</t>
-  </si>
-  <si>
-    <t>entrega bem rapidamas tanto a caixaquanto as laterias dos livros vieram um pouco danificadascom pequenas marcaso plastico que vinha para protegertambem ja estava um pouco rasgado</t>
-  </si>
-  <si>
-    <t>desculpem mas achei deprimente e nao me ensinou muita coisa nao gosto de finais cliches mas acho que faltou dar continuidade a historia do jeito que acabou foi apenastriste</t>
-  </si>
-  <si>
-    <t>chegou com atraso e um amassado no box fora uma falha de impressao na capa da camera secreta esperava mais cuidado no transporte e uma melhor qualidade do material</t>
-  </si>
-  <si>
-    <t>uma bosta completa sem qualquer fundamento ou coesao uma ode a ignorancia tenho pena e arrependimento sobre esta obra pena pelos inocentes que leem e se iludem e arrependimento pelos minutos perdidos</t>
-  </si>
-  <si>
-    <t>sem imaginacao inducao ao alcoolismo as drogas e a automutilacao sem graca sem valor sem estimulo a vida sem perspectiva sem interesse ou expectativa de um modo geral um lixo gostaria do meu dinheiro de volta</t>
-  </si>
-  <si>
-    <t>infelizmente veio com a caixa toda detonada o box veio amassado e com uma das laterais rasgada quase saindo os livros vieram com um pouco de cola na parte superior e ao puxar rasgaram o box e para piorar o quinto livro veio com umas oito paginas em branco pior experiencia</t>
-  </si>
-  <si>
-    <t>nao gostei da maneira como foi escrita</t>
-  </si>
-  <si>
-    <t>preciso saber se essa compra e do livro fisico pq nao quero digital acho que nao entendi a propaganda desculpa msm fui no impulso se nao for fisico quero cancelar a compra</t>
-  </si>
-  <si>
-    <t>uma das maiores historias ja contadas uma decepcao aqui e triste ver o preco deste ebook mais triste ainda e pensar que ha gente que paga por isso</t>
-  </si>
-  <si>
-    <t>nunca tive problemas com a amazon e agora depois de um tempo de efetuar a compra percebi que o livro nao esta em bom estado amassado e com o plastico descolando uma surpresa nada agradavel</t>
-  </si>
-  <si>
-    <t>o produto veio muito bem embalado e a embalagem para presente e muito bonita e vale o valor pago a pessoa a qual dei de presente gostou muito porem a amazon peca no servico de entrega eles ficam colocando que o produto saiu para entrega e voce fica esperando e ele nao chega isso ocorreu por 4 dias seguidos colocavam as 8h da manha que o produto saiu para entrega e entregariam ate as 20h apos as 20h uma mensagem de desculpa era colocada pois nao efetuavam a entrega a transportadora escolhida pela amazon e a pior que ja me efetuou uma entrega nesse quesito pois ficar 4 dias deixando de fazer alguma atividade ou pedindo para um familiar ficar esperando o pacote e ele nao era entregue e desagradavel principalmente quando e uma pessoa que esta fazendo um favor no seu lugar</t>
-  </si>
-  <si>
-    <t>a colecao e maravilhosa sir arthur conan doyle um mestre mas o produto em si deixa a desejar a caixa onde vem o produto se rasga ou descola facil pedi a substituicao do produto e a amazon disse que demoraria 1 mes para enviar o danificado e so ai iria mandar um novo ridiculo como se eu tivesse culpa do envio descuidado deles</t>
-  </si>
-  <si>
-    <t>so um livro de uma pessoa senil que nunca cursou o ensino medio completo de nenhuma escola</t>
-  </si>
-  <si>
-    <t>a qualidade nem tem o q dizer e otima mas que historia chata nao conseguiu me prender e sempre a mesma coisa nao curti</t>
-  </si>
-  <si>
-    <t>a razao nem encosta no pensamento confuso e contraditorio nao e um estudioso e apenas um compilador que distorce ao bel prazer e engana aqueles que desconhecem outras obras ele aposta na ignorancia dos seus leitores para tentar construir uma narrativa fatica e superficial e conflituoso nada justifica um elogio nao desperdice seu tempo</t>
-  </si>
-  <si>
-    <t>nao terminei de ler por que a historia nao estava me agradando e a linguagem criada para o livro confunde muito ao final do livro tem um glossario das palavras mas e muito trabalhoso ver o significado de cada palavra por que sao muitas algumas eu conseguia entender mas a maioria acabou se perdendo o que tornou a leitura mais cansativa ainda nao voltaria a reler o que e uma pena pois laranja mecanica e considerada um dos pais da distopia genero que adoro</t>
-  </si>
-  <si>
-    <t>recebi o livro ontem ok entrega rapida porem nao recebi desconto na promocao marco10 so comprei por causa dessa promocao o q faco agora r1290 do livro mais r790 de frete paguei r2080 gostaria de saber pq nao ganhei desconto</t>
-  </si>
-  <si>
-    <t>acabo de ver a trilogia impressa por 5490 amazon esta sendo ridicula com esse preco pensava seriamente em comprar a edicao kindle mas vou ficar com os que tenho mesmo inviavel</t>
-  </si>
-  <si>
-    <t>o livro e muito repetitivo no comeco o que torna o restante da leitura um pouco cansativa mas tem boas dicas de aplicacoes do metodo 8020</t>
-  </si>
-  <si>
-    <t>odiei a duas semanas tentando ler esse livro e nao consigo progresso enredo previsivel a cada quatro palavras uma e um palavrao menina chata e bocuda nao recomendo esse livro</t>
-  </si>
-  <si>
-    <t>o livro exibe umas poucas tecnicas de maneira reduzida creio que poderiam ser colocados pequenos exemplos para treinamento em uma quantidade que o leitor pudesse avaliar e treinar a tecnica certificando assim o metodo</t>
-  </si>
-  <si>
-    <t>nao gostei brasileiro vestido de indiano mistura espiritismo com induismo quando um aluno reclama que e caro o seu tratamento ele se defende dizendo que faz muita coisa de graca mas tem que ter dinheiro para sobreviver sera que nao e suficiente o que ganha com a venda destes livros sem sentido</t>
-  </si>
-  <si>
-    <t>pessoal voces vao me desculpar mas a resenha parece a historia daquele filme com a julia roberts e o campbell scott com a musica do kenny g tudo por amor</t>
-  </si>
-  <si>
-    <t>livro pessimo dinheiro jogado fora so mesmo os fas obsecados que acham esse livro uma obra prima enfim nao recomendo</t>
-  </si>
-  <si>
-    <t>ainda aguardando baixar o preco absolutamente abusivo nao so a amazon como outras livrarias aumentaram o preco deste livro ultimamente ainda no aguardo do preco justo</t>
-  </si>
-  <si>
-    <t>e uma vergonha nao se ter uma versao em portugues decente para ler no kindle vide informacao de problemas relatados tantos anos do lancamento e nao temos uma versao confiavel</t>
-  </si>
-  <si>
-    <t>concordo com outras avaliacoes feitas entre outros sobre dialogos fracos infantis e acrescento o que li em avaliacoes de outros ebooks em portugues a linguagem esta pra la de apelativa e repetitiva nada atraente muito menos romantica perdeuse totalmente a nocao nao ha qualquer criterio de edicao tentando agora os em ingles para ver se tem algo melhor</t>
-  </si>
-  <si>
-    <t>particularmente nao sou de livro de auto ajuda porem de tanto ouvir falar nesse livro acabei comprando ainda bem que foi numa promocao o livro nao tem nada de diferente achei uma leitura chata e sempre o mais do mesmo tudo que sabemos mas que nao praticamos na maioria das vezes dei duas estrelas pela capa achei a melhor parte do livro</t>
-  </si>
-  <si>
-    <t>ola abaixo copia da mensagem enviada a editora lamppm responsavel pelo lancamento do sapiens no brasil e referese exclusivamente a versao kindle estou lendo e adorando o sapiens de yuval noah harari no entanto como estou utilizando o kindle para fazelo estou sendo obrigado a enfrentar um problema enorme a divisao silabica aleatoria pela primeira vez num livro em portugues me deparei com esse aparente defeito na conversao do livro para o formato da amazon falo isso porque nao e o primeiro titulo em portugues que leio nesse formato e posso atestar que isso nunca me aconteceu antes fico entao obrigado a conviver com bizarrices do tipo mulheres cerimonias sacrificio particular moderno desconhecidos e muito muito mais detalhe alterando o tamanho da fonte nao resolve o problema apenas o desloca para outros pontos do texto em ingles isso nao e uma surpresa pois nao ha regra quanto a isso o que posso notar porem e que tanto em ingles quanto em portugues os livros que li ate agora no kindle evitavam ao maximo a separacao silabica atraves de uma simples edicao da pagina de acordo com o tamanho da fonte utilizado no momento a separacao se da apenas eventualmente infelizmente o mesmo nao ocorre agora com o sapiens a divisao e constante e em inumeros e irritantes casos completamente errada na realidade o prazer da leitura vai sendo minado pelo desprazer dessa lamentavel falha chegando quase a comprometelo por completo pergunta teria havido algum problema na conversao desse especifico livro para a versao kindle estaria ocorrendo algum conflito de versoes ja que recentemente tivemos um update do kindle alguem mais trouxe o mesmo problema ate voces informo que estou encaminhando a mesma mensagem para a amazon caso a origem do defeito aqui relatado seja de competencia daquela empresa no mais parabens por editar no brasil um livro tao especial atenciosamente subscrevome na esperanca de ter alguma solucao para este lamentavel contratempo nelson meirelles</t>
-  </si>
-  <si>
-    <t>comecei a leitura hoje e estou abismado com a traducao sinto mesmo que estou lendo algo traduzido por um computador recomendo a compra em ingles</t>
-  </si>
-  <si>
-    <t>veio amassado nas pontas</t>
-  </si>
-  <si>
-    <t>terminei de ler o livro sem saber dizer o que me acrescentou de toda forma para quem gosta de uma leitura fluida com temas repetitivos pode trazer algumas horas de distracao</t>
-  </si>
-  <si>
-    <t>vou comecar uma leitura em conjunto com varios booktubers e comprei na maior expectativa a caixa da amazon veio extra grande com mais de 30 saquinhos de ar junto com 2outros livrinhos acompanhando mesmo assim a transportadora arrasou com a embalagem toda rasgada e a box veio com as pontas amassadas e danificou meus livros dentro triste demais com a amazon ja deixei de com nas americanas submarino na saraivapois os livros vinham empoeirados e agora penso em nao comprar mais na amazon pois eles oferecem um calaaboca de 20 do produto pra quem coleciona nao importa 20 e sim o produto intacto na estante nota 0 amazon</t>
-  </si>
-  <si>
-    <t>a impressao que me da e que o autor estava com muita mas muita pressa para acabar esse livro achei extremamente forcado sem logica e muito mal costurado parece que ele achou um monte de foto e construiu a historia sem pensar muito cada capitulo que terminava pensava ok ele escreveu isso por causa da fotomas nao tem o menor sentido nao desenvolveu absolutamente nada alem da foto alem disso os personagens perderam muito o carisma sem falar no romance sem sal chaaaaaatooooooooo que o autor forca goela abaixoenfim ate curti o primeiro livro o segundo foi mais ou menos mas o terceiroaffffffff</t>
-  </si>
-  <si>
-    <t>o autor descreve muitos casos para ilustrar suas ideias de forma repetitiva contudo na hora de ensinar as tecnicas para que possamos mudar nossos habitos ele trata a questao de forma bem resumida em umas poucas paginas nao recomendo a leitura por nao apresentarna minha otica uma solucao viavel para que busca uma mudanca de habitos</t>
-  </si>
-  <si>
-    <t>eu que amo ler um bom calhamaco sinceramente me senti traida diante de tanta expectativa sobre esse livro mais parece que o autor queria encher linguica do que dar um bom enredo a estoria infelizmente essa foi a minha primeira experiencia com o autor sendo que ja tenho outro livrinho dele na estante para ser consumido daqui umas semanas espero que essa fatidica primeira impressao passe</t>
-  </si>
-  <si>
-    <t>o ebook esta bem mais caro que o livro fisico muito sem nocao nao vou comprar nao esperar ate chegar nos r20 e olhe la</t>
-  </si>
-  <si>
-    <t>ja tinha lido algumas avaliacoes anteriores e vi diversas reclamacoes nas condicoes do box antecipadamente ja fiquei tensa e infelizmente tambem fui premiada o box veio danificado quando a gente compra um produto esperase receber em perfeito estado ai acontece isso e como se jogasse o balde de agua fria ate porque e um presente que eu vou dar ja danificado bem indelicado os demais produtos que foram livros diversos chegaram em condicoes normais sem defeitos</t>
-  </si>
-  <si>
-    <t>muito dificil a leitura deste livro acredito que seja para um leitor acostumado a este tema nao terminei ainda mas chego la</t>
-  </si>
-  <si>
-    <t>a historia pode ser boa a leitura e muito cansativa acabei abandonando a leitura nos primeiros capitulos</t>
-  </si>
-  <si>
-    <t>paguei para embrulho de presente e veio sem embrulho e uma micharia mas voces nao cumpriram com acordo</t>
-  </si>
-  <si>
-    <t>fui ler achando que tinha criticas profundas e que era realmente um intelectual mas parece uma crianca birrenta que so sabe criar teoria da conspiracao e xingar e falar sem profundidade sobre temas indico pra quem adora senso comum</t>
-  </si>
-  <si>
-    <t>o minimo que voce precisa saber para nao ser um idiota e saber que ler esse livro tem grandes chances de tornar voce um idiota</t>
+    <t>mantive tempo caixa embalado local adequado assim ler livros soltando brochura capas pessima qualidade acabamento questao prazos tenho reclamar</t>
+  </si>
+  <si>
+    <t>livro boas assunto questao bem praticos verdade autopromocao autor fala metodo cis criou acho combina livro autor parece ser excelente pessoa vezes comporta pastor bem crenca respeito recomendo leitura agnosticos ceticos ateus autor menciona deus passagens biblicas 45 vezes sim contei detalhe incomoda bastante alem interromper linha pensamento leitor lerei livro partes novo grifei apenas aplicacao realidade mundo material</t>
+  </si>
+  <si>
+    <t>dei estrela havia opcao dar nenhuma livro simplesmente incompreensivel leigo serve literatura cientifica especialistas hawking internacionalmente conhecido muitissimo inteligente acho gente acanha confessar entendeu maior parte teorias expoe nenhuma comprovacao</t>
+  </si>
+  <si>
+    <t>enfatizado comentarios autora conta romance meio trocas correspondencias li livro acreditando base trailer filme historia seria diferente fato exposto obra achei historia vida personagens principais aspecto afetivo realmente deprimente comprei livro acreditando tratava bela obra realidade acabei lendo historia mais triste frustrante romances li livro alem apresentar narrativa mal construida onde personagens apesar adultos tomam decisoes justificativas tao pateticas chegam lembrar mentalidade crianca 10 anos apresenta tantos encontros desencontros tornam cansativa expectativa concretizacao romance alex rose fanboys cecelia ahern perdoem recomendo obra pra livro leio autora mais</t>
+  </si>
+  <si>
+    <t>amei toas obras lanni escrita perfeita enredos perfeitos enfim amei parabens bom continue encantado criatividade</t>
+  </si>
+  <si>
+    <t>precos ebooks brasil abusivos absurdos livro ingles custa metade preco httpwwwamazoncombrgamethronessongfireebookdpb000qcs8twrefpdsimsbskinc6</t>
+  </si>
+  <si>
+    <t>esperava mais livro achei cansativa repetitiva enredo misterio consegui decifrar logo comeco msm n recomendaria</t>
+  </si>
+  <si>
+    <t>titulo veio centralizado dorso gostei</t>
+  </si>
+  <si>
+    <t>poesia menos poema zero paginas poemas nesse livro existem 208 paginas trechos parece ser diario menina 13 anos quebras linha aleatoria rabiscos legais capitulos ocasionais titulos tematicos voce saiba emocoes autora tentando extrair voce vergonhosamente derivativo emprega quase aparato poetico fragmentos sentenca usados espera poema autora parece entender servem proposito contribuir significado maior poema alusoes metaforas deslocadas incongruentes apresentadas leitor arte nada novo interessante criativo poetico nesse livro cliche sentido positivo palavra sei pessoas enlouqueceram livro lindo livro favorito honestamente bastante claro maior parte apenas periodos basicos quebras linha aleatorias ficariam melhor linha corrida liricos literalmente ler frase normal esperava adorar paginas marquei 7 pessoas leram poesia poema fora escola parece ser otimo livro conceitos especialmente aproximaram aspectos feministas simplesmente impressionaram texto inteiro voce precisa homem apenas repeticao tenho ouvido anos leitura rapida frustrante deixa triste critica tao ma autora tenta colocar bastante emocao trabalho resumindo duas palavras superestimado superficial</t>
+  </si>
+  <si>
+    <t>chato parado decepcao comecei ler varias vezes conseguiu prender momento final li tacada pra surpreendia</t>
+  </si>
+  <si>
+    <t>achei mal gosto mentiroso arrependi adquirido pe cabeca nota zero conteudo edificante</t>
+  </si>
+  <si>
+    <t>livros vieram cola capa alem informar versao compactadapocket unica descricao imagem ilustrativa</t>
+  </si>
+  <si>
+    <t>recomendaria livro vejam ser livro trata historia podese entender autor buscando nova interpretacao fatos ser referencia historia brasil interpretacoes fatos superficiais profundidade criterio pesquisa historica afirmar houvesse colonizacao provavelmente teriamos mais florestas devastadas devido pratica agricola sociedades americanas nativas enxergasse minimamente consequencias historia periodo atual ocorre analise escravidao mostra alheio ocorre sociedade alem mais esperar trabalho serio tenta reinventar historia brasil america latina agorado mundo esperar ser leitura cautelosa recair simplismo interpretacao fatos historicos</t>
+  </si>
+  <si>
+    <t>livro mera propagando leitura dinamica possue conteudo realmente ajude tornar leitor dinamico espera ler subtitulo sentimento fica terminar livro fui enganado</t>
+  </si>
+  <si>
+    <t>livro possui exercicio metodo realmente auxilie leitura dinamica valor baixo vale tanto</t>
+  </si>
+  <si>
+    <t>gostei livro achei cansativo cheio palavras dificeis parece estoria desenrola consegui terminar ler</t>
+  </si>
+  <si>
+    <t>horrivel dei conta ler consigo entender mulher aceita tipo situacao tantas fas seria conta jatinho carros bens materiais</t>
+  </si>
+  <si>
+    <t>titulo ser democracias assassinadas autores mais qualificados governo russo sede difusao comunismo desde 1917 tratase obra donald trump contrario salvando democracia liberal libertarian eua comunistas costuman costumam ser xingam democratas ser costuma acusam democratas</t>
+  </si>
+  <si>
+    <t>sou fa canal primeira sessao peca deixa contar esperava mais livro historias 6 anos idade pe cabeca nada interessantes final pra perceber enchimento linguica fora gramatura paginas fotos tomavam duas paginas inteira continuo fa keh livro bom</t>
+  </si>
+  <si>
+    <t>esperava mais livro achei livro engrenar historia aventura amor mais emocionante dei 2 estrelas pontos livro faz refletir tentar entender pessoas toc pensam passam historia perdeu gostei desenrolar</t>
+  </si>
+  <si>
+    <t>livro excelente chegou amassado maos visto fiquei satisfeita devido ser produto preco relativamente caro embora valido pena gostaria saber possibilidade substituicao tive problemas entregas voces bem decepcionada grata carla bruzetti</t>
+  </si>
+  <si>
+    <t>resumo mais filhinho papai complexo vira lata querendo faturar mais trocadinhos</t>
+  </si>
+  <si>
+    <t>conteudo interessante parecendo traducao descuido alem linguagem ser quase infantil erros formacao descontinuidade frases parece mal revisado</t>
+  </si>
+  <si>
+    <t>sei onde comecar li original ingles certeza culpa traducao fiz esforco pra terminar livro quis ler final acreditava livro tao vendido elogiado pudesse ser tao ruim primeiras 50 paginas extremamente macantes melhoram protagonista facilmente entrar lista personagens mais irritantes historia literatura personagens femininas tao chatas igualmente superficiais instaveis obsessivas homens melhores personagens tao caricatos estilo tao pobre divagacoes megan especialmente forcadas algo salvasse trama interessante acontece suspense livro sim apesar identidade assassino surpresa resto tao ruim compensou compra menos tempo</t>
+  </si>
+  <si>
+    <t>entrega bem rapidamas tanto caixaquanto laterias livros vieram danificadascom marcaso plastico vinha protegertambem rasgado</t>
+  </si>
+  <si>
+    <t>desculpem achei deprimente ensinou gosto finais cliches acho faltou dar continuidade historia jeito acabou apenastriste</t>
+  </si>
+  <si>
+    <t>chegou atraso amassado box fora falha impressao capa camera secreta esperava mais cuidado transporte melhor qualidade material</t>
+  </si>
+  <si>
+    <t>bosta completa qualquer fundamento coesao ode ignorancia tenho pena arrependimento obra pena inocentes leem iludem arrependimento minutos perdidos</t>
+  </si>
+  <si>
+    <t>imaginacao inducao alcoolismo drogas automutilacao graca valor estimulo vida perspectiva interesse expectativa modo geral lixo gostaria dinheiro volta</t>
+  </si>
+  <si>
+    <t>infelizmente veio caixa detonada box veio amassado laterais rasgada quase saindo livros vieram cola parte superior puxar rasgaram box piorar quinto livro veio oito paginas branco pior experiencia</t>
+  </si>
+  <si>
+    <t>gostei maneira escrita</t>
+  </si>
+  <si>
+    <t>preciso saber compra livro fisico pq quero digital acho entendi propaganda desculpa msm fui impulso fisico quero cancelar compra</t>
+  </si>
+  <si>
+    <t>maiores historias contadas decepcao aqui triste preco ebook mais triste pensar gente paga</t>
+  </si>
+  <si>
+    <t>tive problemas amazon tempo efetuar compra percebi livro bom estado amassado plastico descolando surpresa nada agradavel</t>
+  </si>
+  <si>
+    <t>produto veio bem embalado embalagem presente bonita vale valor pago pessoa dei presente gostou amazon peca servico entrega ficam colocando produto saiu entrega voce fica esperando chega ocorreu 4 dias seguidos colocavam 8h manha produto saiu entrega entregariam 20h 20h mensagem desculpa colocada efetuavam entrega transportadora escolhida amazon pior efetuou entrega nesse quesito ficar 4 dias deixando atividade pedindo familiar ficar esperando pacote entregue desagradavel principalmente pessoa favor lugar</t>
+  </si>
+  <si>
+    <t>colecao maravilhosa sir arthur conan doyle mestre produto deixa desejar caixa onde vem produto rasga descola facil pedi substituicao produto amazon demoraria 1 mes enviar danificado ai iria mandar novo ridiculo tivesse culpa envio descuidado</t>
+  </si>
+  <si>
+    <t>livro pessoa senil cursou ensino medio completo nenhuma escola</t>
+  </si>
+  <si>
+    <t>qualidade q dizer otima historia chata conseguiu prender curti</t>
+  </si>
+  <si>
+    <t>razao encosta pensamento confuso contraditorio estudioso apenas compilador distorce bel prazer engana desconhecem obras aposta ignorancia leitores tentar construir narrativa fatica superficial conflituoso nada justifica elogio desperdice tempo</t>
+  </si>
+  <si>
+    <t>terminei ler historia agradando linguagem criada livro confunde final livro glossario palavras trabalhoso significado palavra conseguia entender maioria acabou perdendo tornou leitura mais cansativa voltaria reler pena laranja mecanica considerada pais distopia genero adoro</t>
+  </si>
+  <si>
+    <t>recebi livro ontem ok entrega rapida recebi desconto promocao marco10 comprei causa promocao q faco r1290 livro mais r790 frete paguei r2080 gostaria saber pq ganhei desconto</t>
+  </si>
+  <si>
+    <t>acabo trilogia impressa 5490 amazon ridicula preco pensava seriamente comprar edicao kindle vou ficar tenho inviavel</t>
+  </si>
+  <si>
+    <t>livro repetitivo comeco torna restante leitura cansativa boas dicas aplicacoes metodo 8020</t>
+  </si>
+  <si>
+    <t>odiei duas semanas tentando ler livro consigo progresso enredo previsivel quatro palavras palavrao menina chata bocuda recomendo livro</t>
+  </si>
+  <si>
+    <t>livro exibe tecnicas maneira reduzida creio ser colocados exemplos treinamento quantidade leitor pudesse avaliar treinar tecnica certificando assim metodo</t>
+  </si>
+  <si>
+    <t>gostei brasileiro vestido indiano mistura espiritismo induismo aluno reclama caro tratamento defende dizendo faz graca dinheiro sobreviver suficiente ganha venda livros sentido</t>
+  </si>
+  <si>
+    <t>pessoal voces vao desculpar resenha parece historia filme julia roberts campbell scott musica kenny g amor</t>
+  </si>
+  <si>
+    <t>livro pessimo dinheiro jogado fora fas obsecados acham livro obra prima enfim recomendo</t>
+  </si>
+  <si>
+    <t>aguardando baixar preco absolutamente abusivo amazon livrarias aumentaram preco livro ultimamente aguardo preco justo</t>
+  </si>
+  <si>
+    <t>vergonha versao portugues decente ler kindle vide informacao problemas relatados tantos anos lancamento temos versao confiavel</t>
+  </si>
+  <si>
+    <t>concordo avaliacoes dialogos fracos infantis acrescento li avaliacoes ebooks portugues linguagem pra apelativa repetitiva nada atraente menos romantica perdeuse totalmente nocao qualquer criterio edicao tentando ingles algo melhor</t>
+  </si>
+  <si>
+    <t>particularmente sou livro auto ajuda tanto ouvir falar nesse livro acabei comprando bem promocao livro nada diferente achei leitura chata mais sabemos praticamos maioria vezes dei duas estrelas capa achei melhor parte livro</t>
+  </si>
+  <si>
+    <t>ola abaixo copia mensagem enviada editora lamppm responsavel lancamento sapiens brasil referese exclusivamente versao kindle lendo adorando sapiens yuval noah harari entanto utilizando kindle fazelo obrigado enfrentar problema enorme divisao silabica aleatoria primeira livro portugues deparei aparente defeito conversao livro formato amazon falo titulo portugues leio nesse formato atestar aconteceu fico entao obrigado conviver bizarrices tipo mulheres cerimonias sacrificio particular moderno desconhecidos mais detalhe alterando tamanho fonte resolve problema apenas desloca pontos texto ingles surpresa regra notar tanto ingles portugues livros li kindle evitavam maximo separacao silabica simples edicao pagina acordo tamanho fonte utilizado momento separacao apenas eventualmente infelizmente ocorre sapiens divisao constante inumeros irritantes casos completamente errada realidade prazer leitura vai minado desprazer lamentavel falha chegando quase comprometelo completo pergunta teria havido problema conversao especifico livro versao kindle estaria ocorrendo conflito versoes recentemente tivemos update kindle mais trouxe problema voces informo encaminhando mensagem amazon caso origem defeito aqui relatado competencia daquela empresa mais parabens editar brasil livro tao especial atenciosamente subscrevome esperanca solucao lamentavel contratempo nelson meirelles</t>
+  </si>
+  <si>
+    <t>comecei leitura hoje abismado traducao sinto lendo algo traduzido computador recomendo compra ingles</t>
+  </si>
+  <si>
+    <t>veio amassado pontas</t>
+  </si>
+  <si>
+    <t>terminei ler livro saber dizer acrescentou forma gosta leitura fluida temas repetitivos trazer horas distracao</t>
+  </si>
+  <si>
+    <t>vou comecar leitura conjunto varios booktubers comprei maior expectativa caixa amazon veio extra mais 30 saquinhos ar junto 2outros livrinhos acompanhando assim transportadora arrasou embalagem rasgada box veio pontas amassadas danificou livros dentro triste demais amazon deixei americanas submarino saraivapois livros vinham empoeirados penso comprar mais amazon oferecem calaaboca 20 produto pra coleciona importa 20 sim produto intacto estante nota 0 amazon</t>
+  </si>
+  <si>
+    <t>impressao autor pressa acabar livro achei extremamente forcado logica mal costurado parece achou monte foto construiu historia pensar capitulo terminava pensava ok escreveu causa fotomas menor sentido desenvolveu absolutamente nada alem foto alem personagens perderam carisma falar romance sal chaaaaaatooooooooo autor forca goela abaixoenfim curti livro segundo mais menos terceiroaffffffff</t>
+  </si>
+  <si>
+    <t>autor descreve casos ilustrar ideias forma repetitiva hora ensinar tecnicas possamos mudar habitos trata questao forma bem resumida paginas recomendo leitura apresentarna otica solucao viavel busca mudanca habitos</t>
+  </si>
+  <si>
+    <t>amo ler bom calhamaco sinceramente senti traida diante tanta expectativa livro mais parece autor queria encher linguica dar bom enredo estoria infelizmente primeira experiencia autor tenho livrinho estante ser consumido daqui semanas espero fatidica primeira impressao passe</t>
+  </si>
+  <si>
+    <t>ebook bem mais caro livro fisico nocao vou comprar esperar chegar r20 olhe</t>
+  </si>
+  <si>
+    <t>lido avaliacoes anteriores vi diversas reclamacoes condicoes box antecipadamente fiquei tensa infelizmente fui premiada box veio danificado gente compra produto esperase receber perfeito estado ai acontece jogasse balde agua fria presente vou dar danificado bem indelicado demais produtos livros diversos chegaram condicoes normais defeitos</t>
+  </si>
+  <si>
+    <t>dificil leitura livro acredito leitor acostumado tema terminei chego</t>
+  </si>
+  <si>
+    <t>historia ser boa leitura cansativa acabei abandonando leitura capitulos</t>
+  </si>
+  <si>
+    <t>paguei embrulho presente veio embrulho micharia voces cumpriram acordo</t>
+  </si>
+  <si>
+    <t>fui ler achando criticas profundas realmente intelectual parece crianca birrenta sabe criar teoria conspiracao xingar falar profundidade temas indico pra adora senso comum</t>
+  </si>
+  <si>
+    <t>minimo voce precisa saber ser idiota saber ler livro chances tornar voce idiota</t>
   </si>
 </sst>
 </file>
